--- a/scholar_results_2023.xlsx
+++ b/scholar_results_2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="922">
   <si>
     <t>Title</t>
   </si>
@@ -23,141 +23,168 @@
     <t>Venue</t>
   </si>
   <si>
+    <t>Multi-contact task and motion planning guided by video demonstration</t>
+  </si>
+  <si>
+    <t>Neural grasp distance fields for robot manipulation</t>
+  </si>
+  <si>
     <t>S*: On safe and time efficient robot motion planning</t>
   </si>
   <si>
-    <t>Household clothing set and benchmarks for characterising end-effector cloth manipulation</t>
-  </si>
-  <si>
     <t>Identification of a Generalized Base Inertial Parameter Set of Robotic Manipulators Considering Mounting Configurations</t>
   </si>
   <si>
-    <t>Guided optimal control for long-term non-prehensile planar manipulation</t>
+    <t>Progprompt: Generating situated robot task plans using large language models</t>
   </si>
   <si>
     <t>GraspAda: Deep Grasp Adaptation through Domain Transfer</t>
   </si>
   <si>
+    <t>A Tactile-Enabled Hybrid Rigid-Soft Continuum Manipulator for Forceful Enveloping Grasps via Scale Invariant Design</t>
+  </si>
+  <si>
+    <t>FewSOL: A Dataset for Few-Shot Object Learning in Robotic Environments</t>
+  </si>
+  <si>
+    <t>Dual Robot Collaborative System for Autonomous Venous Access Based on Ultrasound and Bioimpedance Sensing Technology</t>
+  </si>
+  <si>
+    <t>Carrying the uncarriable: a deformation-agnostic and human-cooperative framework for unwieldy objects using multiple robots</t>
+  </si>
+  <si>
+    <t>An architecture for reactive mobile manipulation on-the-move</t>
+  </si>
+  <si>
+    <t>Graspnerf: Multiview-based 6-dof grasp detection for transparent and specular objects using generalizable nerf</t>
+  </si>
+  <si>
+    <t>Curobo: Parallelized collision-free robot motion generation</t>
+  </si>
+  <si>
+    <t>Grounding language with visual affordances over unstructured data</t>
+  </si>
+  <si>
+    <t>Monograspnet: 6-dof grasping with a single rgb image</t>
+  </si>
+  <si>
+    <t>Edge grasp network: A graph-based se (3)-invariant approach to grasp detection</t>
+  </si>
+  <si>
     <t>Generalization of Impact Response Factors for Proprioceptive Collaborative Robots</t>
   </si>
   <si>
-    <t>Carrying the uncarriable: a deformation-agnostic and human-cooperative framework for unwieldy objects using multiple robots</t>
+    <t>Online Learning and Suppression of Vibration in Collaborative Robots with Power Tools</t>
   </si>
   <si>
     <t>Vp-sto: Via-point-based stochastic trajectory optimization for reactive robot behavior</t>
   </si>
   <si>
-    <t>Minimizing human assistance: Augmenting a single demonstration for deep reinforcement learning</t>
-  </si>
-  <si>
-    <t>FewSOL: A Dataset for Few-Shot Object Learning in Robotic Environments</t>
-  </si>
-  <si>
-    <t>Dual quaternion based dynamic movement primitives to learn industrial tasks using teleoperation</t>
-  </si>
-  <si>
-    <t>Dual Robot Collaborative System for Autonomous Venous Access Based on Ultrasound and Bioimpedance Sensing Technology</t>
-  </si>
-  <si>
-    <t>A Tactile-Enabled Hybrid Rigid-Soft Continuum Manipulator for Forceful Enveloping Grasps via Scale Invariant Design</t>
-  </si>
-  <si>
-    <t>A Passivity-based Approach on Relocating High-Frequency Robot Controller to the Edge Cloud</t>
-  </si>
-  <si>
-    <t>Progprompt: Generating situated robot task plans using large language models</t>
+    <t>Goal-Conditioned Action Space Reduction for Deformable Object Manipulation</t>
+  </si>
+  <si>
+    <t>Learning neuro-symbolic programs for language guided robot manipulation</t>
+  </si>
+  <si>
+    <t>Useek: Unsupervised se (3)-equivariant 3d keypoints for generalizable manipulation</t>
+  </si>
+  <si>
+    <t>A force-sensitive exoskeleton for teleoperation: An application in elderly care robotics</t>
   </si>
   <si>
     <t>On locally optimal redundancy resolution using the basis of the null space</t>
   </si>
   <si>
+    <t>On the programming effort required to generate Behavior Trees and Finite State Machines for robotic applications</t>
+  </si>
+  <si>
+    <t>Safe self-supervised learning in real of visuo-tactile feedback policies for industrial insertion</t>
+  </si>
+  <si>
+    <t>Rlafford: End-to-end affordance learning for robotic manipulation</t>
+  </si>
+  <si>
+    <t>Edo-net: Learning elastic properties of deformable objects from graph dynamics</t>
+  </si>
+  <si>
+    <t>In-mouth robotic bite transfer with visual and haptic sensing</t>
+  </si>
+  <si>
     <t>Boundary Conditions in Geodesic Motion Planning for Manipulators</t>
   </si>
   <si>
-    <t>A force-sensitive exoskeleton for teleoperation: An application in elderly care robotics</t>
-  </si>
-  <si>
-    <t>A New Efficient Eye Gaze Tracker for Robotic Applications</t>
-  </si>
-  <si>
-    <t>Learning neuro-symbolic programs for language guided robot manipulation</t>
-  </si>
-  <si>
-    <t>An architecture for reactive mobile manipulation on-the-move</t>
-  </si>
-  <si>
-    <t>Safe self-supervised learning in real of visuo-tactile feedback policies for industrial insertion</t>
-  </si>
-  <si>
-    <t>Edo-net: Learning elastic properties of deformable objects from graph dynamics</t>
-  </si>
-  <si>
-    <t>Grounding language with visual affordances over unstructured data</t>
-  </si>
-  <si>
-    <t>Graspnerf: Multiview-based 6-dof grasp detection for transparent and specular objects using generalizable nerf</t>
-  </si>
-  <si>
-    <t>Edge grasp network: A graph-based se (3)-invariant approach to grasp detection</t>
-  </si>
-  <si>
-    <t>GSMR-CNN: An End-to-End Trainable Architecture for Grasping Target Objects from Multi-Object Scenes</t>
-  </si>
-  <si>
-    <t>In-mouth robotic bite transfer with visual and haptic sensing</t>
-  </si>
-  <si>
-    <t>Curobo: Parallelized collision-free robot motion generation</t>
+    <t>Elastic context: Encoding elasticity for data-driven models of textiles</t>
   </si>
   <si>
     <t>Multimodal time series learning of robots based on distributed and integrated modalities: Verification with a simulator and actual robots</t>
   </si>
   <si>
-    <t>On the programming effort required to generate Behavior Trees and Finite State Machines for robotic applications</t>
-  </si>
-  <si>
     <t>Pose Quality Prediction for Vision Guided Robotic Shoulder Arthroplasty</t>
   </si>
   <si>
-    <t>Ansel photobot: A robot event photographer with semantic intelligence</t>
+    <t>Latte: Language trajectory transformer</t>
   </si>
   <si>
     <t>An optimal open-loop strategy for handling a flexible beam with a robot manipulator</t>
   </si>
   <si>
+    <t>LES: Locally Exploitative Sampling for Robot Path Planning</t>
+  </si>
+  <si>
+    <t>Scarp: 3d shape completion in arbitrary poses for improved grasping</t>
+  </si>
+  <si>
+    <t>Efficient Recovery Learning using Model Predictive Meta-Reasoning</t>
+  </si>
+  <si>
     <t>Bootstrapped autonomous practicing via multi-task reinforcement learning</t>
   </si>
   <si>
-    <t>Online Learning and Suppression of Vibration in Collaborative Robots with Power Tools</t>
+    <t>Learning to predict action feasibility for task and motion planning in 3d environments</t>
+  </si>
+  <si>
+    <t>Learning tool morphology for contact-rich manipulation tasks with differentiable simulation</t>
+  </si>
+  <si>
+    <t>Global and reactive motion generation with geometric fabric command sequences</t>
+  </si>
+  <si>
+    <t>Learning height for top-down grasps with the DIGIT sensor</t>
   </si>
   <si>
     <t>In-situ Mechanical Calibration for Vision-based Tactile Sensors</t>
   </si>
   <si>
-    <t>Neuro-Adaptive Dynamic Control with Edge-Computing for Collaborative Digital Twin of an Industrial Robotic Manipulator</t>
-  </si>
-  <si>
     <t>Spherical Cubic Blends: -Continuous, Zero-Clamped, and Time-Optimized Interpolation of Quaternions</t>
   </si>
   <si>
-    <t>Useek: Unsupervised se (3)-equivariant 3d keypoints for generalizable manipulation</t>
-  </si>
-  <si>
-    <t>Kinodynamic Rapidly-exploring Random Forest for Rearrangement-Based Nonprehensile Manipulation</t>
-  </si>
-  <si>
-    <t>Extraneousness-Aware Imitation Learning</t>
+    <t>Probabilistic rare-event verification for temporal logic robot tasks</t>
   </si>
   <si>
     <t>Force/torque sensing for soft grippers using an external camera</t>
   </si>
   <si>
-    <t>Probabilistic rare-event verification for temporal logic robot tasks</t>
+    <t>Learning Feasibility of Factored Nonlinear Programs in Robotic Manipulation Planning</t>
+  </si>
+  <si>
+    <t>A Tactile Feedback Insertion Strategy for Peg-in-Hole Tasks</t>
+  </si>
+  <si>
+    <t>Dynamical System-based Imitation Learning for Visual Servoing using the Large Projection Formulation</t>
   </si>
   <si>
     <t>Characterisation of Antagonistically Actuated, Stiffness-Controllable Joint-Link Units for Cobots</t>
   </si>
   <si>
+    <t>Semantic Mapping with Confidence Scores through Metric Embeddings and Gaussian Process Classification</t>
+  </si>
+  <si>
+    <t>A ROS-based kinematic calibration tool for serial robots</t>
+  </si>
+  <si>
+    <t>VaPr: Variable-Precision Tensors to Accelerate Robot Motion Planning</t>
+  </si>
+  <si>
     <t>Null-Space Compliance Variation for Safe Human-Robot Collaboration in Redundant Manipulators using Safety Control Barrier Functions</t>
   </si>
   <si>
@@ -167,46 +194,49 @@
     <t>Grasp Region Exploration for 7-DoF Robotic Grasping in Cluttered Scenes</t>
   </si>
   <si>
-    <t>A Multitask and Kernel Approach for Learning to Push Objects with a Target-Parameterized Deep Q-Network</t>
-  </si>
-  <si>
-    <t>Primitive Skill-based Robot Learning from Human Evaluative Feedback</t>
-  </si>
-  <si>
-    <t>A ROS-based kinematic calibration tool for serial robots</t>
+    <t>Exploring visual pre-training for robot manipulation: Datasets, models and methods</t>
+  </si>
+  <si>
+    <t>A Mangasarian-Soldov Function Based Neural Network for Constrained Control of Parallel and Serial Robots</t>
+  </si>
+  <si>
+    <t>Evaluation of a 7-DoFs Robotic Manipulator as Haptic Interface During Planar Reaching Tasks</t>
   </si>
   <si>
     <t>Deep Functional Predictive Control (deep-FPC): Robot Pushing 3-D Cluster Using Tactile Prediction</t>
   </si>
   <si>
-    <t>Motion planning diffusion: Learning and planning of robot motions with diffusion models</t>
+    <t>Keypoints-Based Adaptive Visual Servoing for Control of Robotic Manipulators in Configuration Space</t>
   </si>
   <si>
     <t>Towards Connecting Control to Perception: High-Performance Whole-Body Collision Avoidance Using Control-Compatible Obstacles</t>
   </si>
   <si>
-    <t>Keypoints-Based Adaptive Visual Servoing for Control of Robotic Manipulators in Configuration Space</t>
-  </si>
-  <si>
-    <t>A Mangasarian-Soldov Function Based Neural Network for Constrained Control of Parallel and Serial Robots</t>
+    <t>Robotic crop handling in cluttered and unstructured environments using simulated l-system dynamic plant models</t>
+  </si>
+  <si>
+    <t>Active Acoustic Sensing for Robot Manipulation</t>
+  </si>
+  <si>
+    <t>Pre-and post-contact policy decomposition for non-prehensile manipulation with zero-shot sim-to-real transfer</t>
   </si>
   <si>
     <t>Shared Autonomy Control for Slosh-Free Teleoperation</t>
   </si>
   <si>
+    <t>DAMON: Dynamic Amorphous Obstacle Navigation using Topological Manifold Learning and Variational Autoencoding</t>
+  </si>
+  <si>
+    <t>A Stable Adaptive Extended Kalman Filter for Estimating Robot Manipulators Link Velocity and Acceleration</t>
+  </si>
+  <si>
+    <t>Contact-aware Shaping and Maintenance of Deformable Linear Objects With Fixtures</t>
+  </si>
+  <si>
     <t>Towards Flexible Biolaboratory Automation: Container Taxonomy-Based, 3D-Printed Gripper Fingers*</t>
   </si>
   <si>
-    <t>In-Hand Cube Reconfiguration: Simplified</t>
-  </si>
-  <si>
-    <t>Evaluation of a 7-DoFs Robotic Manipulator as Haptic Interface During Planar Reaching Tasks</t>
-  </si>
-  <si>
-    <t>Pre-and post-contact policy decomposition for non-prehensile manipulation with zero-shot sim-to-real transfer</t>
-  </si>
-  <si>
-    <t>Refining 6-DoF Grasps with Context-Specific Classifiers</t>
+    <t>Hardware-in-the-Loop Simulation of Vehicle-Manipulator Systems for Physical Interaction Tasks</t>
   </si>
   <si>
     <t>Labelling Lightweight Robot Energy Consumption: A Mechatronics-Based Benchmarking Metric Set</t>
@@ -215,118 +245,121 @@
     <t>I2mpedance - A Passivity Based Integrative Impedance Controller for Precise and Compliant Manipulation and Interaction</t>
   </si>
   <si>
-    <t>Finding biomechanically safe trajectories for robot manipulation of the human body in a search and rescue scenario</t>
-  </si>
-  <si>
-    <t>A Stable Adaptive Extended Kalman Filter for Estimating Robot Manipulators Link Velocity and Acceleration</t>
-  </si>
-  <si>
-    <t>Active Acoustic Sensing for Robot Manipulation</t>
-  </si>
-  <si>
-    <t>CAT-RRT: Motion Planning that Admits Contact One Link at a Time</t>
-  </si>
-  <si>
-    <t>Contact-aware Shaping and Maintenance of Deformable Linear Objects With Fixtures</t>
-  </si>
-  <si>
-    <t>Robotic crop handling in cluttered and unstructured environments using simulated l-system dynamic plant models</t>
-  </si>
-  <si>
-    <t>DAMON: Dynamic Amorphous Obstacle Navigation using Topological Manifold Learning and Variational Autoencoding</t>
-  </si>
-  <si>
-    <t>High-Accuracy Injection Using a Mobile Manipulation Robot for Chemistry Lab Automation</t>
+    <t>Diffclothai: Differentiable cloth simulation with intersection-free frictional contact and differentiable two-way coupling with articulated rigid bodies</t>
+  </si>
+  <si>
+    <t>Task-Oriented Grasping with Point Cloud Representation of Objects</t>
+  </si>
+  <si>
+    <t>Kinematically-decoupled impedance control for fast object visual servoing and grasping on quadruped manipulators</t>
+  </si>
+  <si>
+    <t>Dynamic Decision Frequency with Continuous Options</t>
   </si>
   <si>
     <t>Active Electric Perception-Based Haptic Modality with Applications to Robotics</t>
   </si>
   <si>
-    <t>Task-Oriented Grasping with Point Cloud Representation of Objects</t>
-  </si>
-  <si>
-    <t>Imitation-guided Multimodal Policy Generation from Behaviourally Diverse Demonstrations</t>
-  </si>
-  <si>
-    <t>Hardware-in-the-Loop Simulation of Vehicle-Manipulator Systems for Physical Interaction Tasks</t>
-  </si>
-  <si>
-    <t>Adversarial Object Rearrangement in Constrained Environments with Heterogeneous Graph Neural Networks</t>
-  </si>
-  <si>
-    <t>Active Task Randomization: Learning Robust Skills via Unsupervised Generation of Diverse and Feasible Tasks</t>
-  </si>
-  <si>
-    <t>Kinematically-decoupled impedance control for fast object visual servoing and grasping on quadruped manipulators</t>
-  </si>
-  <si>
-    <t>Dynamic Decision Frequency with Continuous Options</t>
-  </si>
-  <si>
     <t>SDF-Pack: Towards Compact Bin Packing with Signed-Distance-Field Minimization</t>
   </si>
   <si>
-    <t>Motion magnification in robotic sonography: enabling pulsation-aware artery segmentation</t>
-  </si>
-  <si>
-    <t>Parallel-Jaw Gripper and Grasp Co-Optimization for Sets of Planar Objects</t>
-  </si>
-  <si>
-    <t>Boosting Feedback Efficiency of Interactive Reinforcement Learning by Adaptive Learning from Scores</t>
+    <t>Autonomous Ultrasound Scanning Towards Standard Plane Using Interval Interaction Probabilistic Movement Primitives</t>
   </si>
   <si>
     <t>Impact-Friendly Object Catching at Non-Zero Velocity Based on Combined Optimization and Learning</t>
   </si>
   <si>
-    <t>IOSG: Image-Driven Object Searching and Grasping</t>
-  </si>
-  <si>
     <t>RGBD Fusion Grasp Network with Large-Scale Tableware Grasp Dataset</t>
   </si>
   <si>
+    <t>Dexterous Soft Hands Linearize Feedback-Control for In-Hand Manipulation</t>
+  </si>
+  <si>
+    <t>Push to Know!-Visuo-Tactile Based Active Object Parameter Inference with Dual Differentiable Filtering</t>
+  </si>
+  <si>
+    <t>Zero-Shot Fault Detection for Manipulators Through Bayesian Inverse Reinforcement Learning</t>
+  </si>
+  <si>
     <t>Learning Contact-Based State Estimation for Assembly Tasks</t>
   </si>
   <si>
+    <t>Efficient Learning from Demonstration for Manufacturing Tasks</t>
+  </si>
+  <si>
+    <t>Online Identification of Payload Inertial Parameters Using Ensemble Learning for Collaborative Robots</t>
+  </si>
+  <si>
     <t>Whole-body ergodic exploration with a manipulator using diffusion</t>
   </si>
   <si>
-    <t>Online Identification of Payload Inertial Parameters Using Ensemble Learning for Collaborative Robots</t>
+    <t>Composite learning variable impedance robot control with stability and passivity guarantees</t>
+  </si>
+  <si>
+    <t>Orbit: A Unified Simulation Framework for Interactive Robot Learning Environments</t>
+  </si>
+  <si>
+    <t>Dall-e-bot: Introducing web-scale diffusion models to robotics</t>
+  </si>
+  <si>
+    <t>Differentiable physics simulation of dynamics-augmented neural objects</t>
+  </si>
+  <si>
+    <t>Ecdp: Energy consumption disaggregation pipeline for energy optimization in lightweight robots</t>
   </si>
   <si>
     <t>Learning Robust Point-to-Point Motions Adversarially: A Stochastic Differential Equation Approach</t>
   </si>
   <si>
-    <t>Ecdp: Energy consumption disaggregation pipeline for energy optimization in lightweight robots</t>
-  </si>
-  <si>
-    <t>Composite learning variable impedance robot control with stability and passivity guarantees</t>
+    <t>Visual-tactile robot grasping based on human skill learning from demonstrations using a wearable parallel hand exoskeleton</t>
+  </si>
+  <si>
+    <t>Towards task-specific modular gripper fingers: Automatic production of fingertip mechanics</t>
+  </si>
+  <si>
+    <t>Anthropomorphic Grasping with Neural Object Shape Completion</t>
   </si>
   <si>
     <t>Enhanced dexterity maps (EDM): A new map for manipulator capability analysis</t>
   </si>
   <si>
-    <t>Orbit: A Unified Simulation Framework for Interactive Robot Learning Environments</t>
-  </si>
-  <si>
-    <t>Dall-e-bot: Introducing web-scale diffusion models to robotics</t>
-  </si>
-  <si>
-    <t>Towards task-specific modular gripper fingers: Automatic production of fingertip mechanics</t>
-  </si>
-  <si>
-    <t>Anthropomorphic Grasping with Neural Object Shape Completion</t>
-  </si>
-  <si>
     <t>League: Guided skill learning and abstraction for long-horizon manipulation</t>
   </si>
   <si>
+    <t>Learning sampling dictionaries for efficient and generalizable robot motion planning with transformers</t>
+  </si>
+  <si>
+    <t>Inter-finger Small Object Manipulation with DenseTact Optical Tactile Sensor</t>
+  </si>
+  <si>
+    <t>ProDMP: A Unified Perspective on Dynamic and Probabilistic Movement Primitives</t>
+  </si>
+  <si>
+    <t>KINet: Unsupervised Forward Models for Robotic Pushing Manipulation</t>
+  </si>
+  <si>
+    <t>Learning to search in task and motion planning with streams</t>
+  </si>
+  <si>
     <t>In-Hand Manipulation with a Simple Belted Parallel-Jaw Gripper</t>
   </si>
   <si>
+    <t>All the Feels: A dexterous hand with large-area tactile sensing</t>
+  </si>
+  <si>
+    <t>Multi Actor-Critic DDPG for Robot Action Space Decomposition: A Framework to Control Large 3D Deformation of Soft Linear Objects</t>
+  </si>
+  <si>
+    <t>One-shot imitation learning with Graph Neural Networks for Pick-and-Place manipulation tasks</t>
+  </si>
+  <si>
+    <t>Aim-Aware Collision Monitoring: Discriminating between Expected and Unexpected Post-Impact Behaviors</t>
+  </si>
+  <si>
     <t>MagNeed–Needle-Shaped Electromagnets for Localized Actuation Within Compact Workspaces</t>
   </si>
   <si>
-    <t>KINet: Unsupervised Forward Models for Robotic Pushing Manipulation</t>
+    <t>Adaptive Tactile Force Control in a Parallel Gripper with Low Positioning Resolution</t>
   </si>
   <si>
     <t>Online 3D edge reconstruction of wiry structures from monocular image sequences</t>
@@ -335,238 +368,235 @@
     <t>Deformable Linear Objects 3D Shape Estimation and Tracking From Multiple 2D Views</t>
   </si>
   <si>
-    <t>Multi Actor-Critic DDPG for Robot Action Space Decomposition: A Framework to Control Large 3D Deformation of Soft Linear Objects</t>
-  </si>
-  <si>
-    <t>One-shot imitation learning with Graph Neural Networks for Pick-and-Place manipulation tasks</t>
-  </si>
-  <si>
-    <t>All the Feels: A dexterous hand with large-area tactile sensing</t>
+    <t>A Robust Deformable Linear Object Perception Pipeline in 3D: From Segmentation to Reconstruction</t>
+  </si>
+  <si>
+    <t>Plug'n Play Task-Level Autonomy for Robotics Using POMDPs and Probabilistic Programs</t>
+  </si>
+  <si>
+    <t>Stability Analysis of Plane-to-Plane Positioning by Proximity-based Control</t>
+  </si>
+  <si>
+    <t>Synergistic Task and Motion Planning With Reinforcement Learning-Based Non-Prehensile Actions</t>
+  </si>
+  <si>
+    <t>Decoupled Model Predictive Control for Path Following on Complex Surfaces</t>
+  </si>
+  <si>
+    <t>Visual-Policy Learning Through Multi-Camera View to Single-Camera View Knowledge Distillation for Robot Manipulation Tasks</t>
+  </si>
+  <si>
+    <t>Geometric-Feature Representation Based Pre-Training Method for Reinforcement Learning of Peg-in-Hole Tasks</t>
+  </si>
+  <si>
+    <t>NFL: Normal Field Learning for 6-DoF Grasping of Transparent Objects</t>
+  </si>
+  <si>
+    <t>Sketch RL: Interactive Sketch Generation for Long-Horizon Tasks via Vision-Based Skill Predictor</t>
+  </si>
+  <si>
+    <t>Multimodal Grasp Planner for Hybrid Grippers in Cluttered Scenes</t>
+  </si>
+  <si>
+    <t>Maximising Coefficiency of Human-Robot Handovers through Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>One-shot Learning for Task-oriented Grasping</t>
+  </si>
+  <si>
+    <t>Motion Planning of Mobile Manipulator for Navigation Including Door Traversal</t>
   </si>
   <si>
     <t>Cooperative Assist-as-Needed Control for Robotic Rehabilitation: A Two-Player Game Approach</t>
   </si>
   <si>
-    <t>Aim-Aware Collision Monitoring: Discriminating between Expected and Unexpected Post-Impact Behaviors</t>
-  </si>
-  <si>
-    <t>Decoupled Model Predictive Control for Path Following on Complex Surfaces</t>
-  </si>
-  <si>
-    <t>Learning to search in task and motion planning with streams</t>
-  </si>
-  <si>
-    <t>NFL: Normal Field Learning for 6-DoF Grasping of Transparent Objects</t>
-  </si>
-  <si>
-    <t>Adaptive Tactile Force Control in a Parallel Gripper with Low Positioning Resolution</t>
-  </si>
-  <si>
-    <t>One-shot Learning for Task-oriented Grasping</t>
-  </si>
-  <si>
-    <t>Maximising Coefficiency of Human-Robot Handovers through Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>Plug'n Play Task-Level Autonomy for Robotics Using POMDPs and Probabilistic Programs</t>
-  </si>
-  <si>
     <t>A Multi-Configuration Track-Legged Humanoid Robot for Dexterous Manipulation and High Mobility: Design and Development</t>
   </si>
   <si>
-    <t>Stability Analysis of Plane-to-Plane Positioning by Proximity-based Control</t>
-  </si>
-  <si>
-    <t>Synergistic Task and Motion Planning With Reinforcement Learning-Based Non-Prehensile Actions</t>
-  </si>
-  <si>
-    <t>Motion Planning of Mobile Manipulator for Navigation Including Door Traversal</t>
-  </si>
-  <si>
-    <t>Visual-Policy Learning Through Multi-Camera View to Single-Camera View Knowledge Distillation for Robot Manipulation Tasks</t>
-  </si>
-  <si>
-    <t>Sketch RL: Interactive Sketch Generation for Long-Horizon Tasks via Vision-Based Skill Predictor</t>
+    <t>AAGDN: Attention-Augmented Grasp Detection Network Based on Coordinate Attention and Effective Feature Fusion Method</t>
   </si>
   <si>
     <t>Signal Temporal Logic Neural Predictive Control</t>
   </si>
   <si>
-    <t>AAGDN: Attention-Augmented Grasp Detection Network Based on Coordinate Attention and Effective Feature Fusion Method</t>
-  </si>
-  <si>
-    <t>Multimodal Grasp Planner for Hybrid Grippers in Cluttered Scenes</t>
+    <t>Model Reduction in Soft Robotics Using Locally Volume-Preserving Primitives</t>
+  </si>
+  <si>
+    <t>Grasp Transfer based on Self-Aligning Implicit Representations of Local Surfaces</t>
   </si>
   <si>
     <t>Learning From Guided Play: Improving Exploration for Adversarial Imitation Learning With Simple Auxiliary Tasks</t>
   </si>
   <si>
+    <t>Type of publication: Journal paper Citation: Bilaloglu_IEEERA-L_2023 Publication status: Published Journal: IEEE Robotics and Automation Letters Volume: 8</t>
+  </si>
+  <si>
     <t>Geometric Algebra for Optimal Control with Applications in Manipulation Tasks</t>
   </si>
   <si>
+    <t>Robust Sampling-Based Control of Mobile Manipulators for Interaction With Articulated Objects</t>
+  </si>
+  <si>
+    <t>Dynamic optimization fabrics for motion generation</t>
+  </si>
+  <si>
     <t>Grasp It Like a Pro 2.0: A Data-Driven Approach Exploiting Basic Shape Decomposition and Human Data for Grasping Unknown Objects</t>
   </si>
   <si>
-    <t>Robust Sampling-Based Control of Mobile Manipulators for Interaction With Articulated Objects</t>
+    <t>Deep learning approaches to grasp synthesis: A review</t>
+  </si>
+  <si>
+    <t>Impedance Learning for Human-Guided Robots in Contact With Unknown Environments</t>
+  </si>
+  <si>
+    <t>Lattice-based shape tracking and servoing of elastic objects</t>
+  </si>
+  <si>
+    <t>Robust task-space quadratic programming for kinematic-controlled robots</t>
+  </si>
+  <si>
+    <t>Cutaneous/tactile haptic feedback in robotic teleoperation: Motivation, survey, and perspectives</t>
+  </si>
+  <si>
+    <t>Robot Programming by Demonstration: Trajectory Learning Enhanced by sEMG-Based User Hand Stiffness Estimation</t>
+  </si>
+  <si>
+    <t>Learning stable models for prediction and control</t>
   </si>
   <si>
     <t>Modularize-and-Conquer: A Generalized Impact Dynamics and Safe Precollision Control Framework for Floating-Base Tree-Like Robots</t>
   </si>
   <si>
-    <t>Lattice-based shape tracking and servoing of elastic objects</t>
-  </si>
-  <si>
-    <t>Dynamic optimization fabrics for motion generation</t>
-  </si>
-  <si>
-    <t>Learning stable models for prediction and control</t>
-  </si>
-  <si>
-    <t>Impedance Learning for Human-Guided Robots in Contact With Unknown Environments</t>
-  </si>
-  <si>
-    <t>Robust task-space quadratic programming for kinematic-controlled robots</t>
-  </si>
-  <si>
-    <t>Deep learning approaches to grasp synthesis: A review</t>
+    <t>Active inference and behavior trees for reactive action planning and execution in robotics</t>
   </si>
   <si>
     <t>Predictive Multi-Agent based Planning and Landing Controller for Reactive Dual-Arm Manipulation</t>
   </si>
   <si>
+    <t>Millimeter-Level Pick and Peg-in-Hole Task Achieved by Aerial Manipulator</t>
+  </si>
+  <si>
     <t>A Wearable Force-Sensitive and Body-Aware Exoprosthesis for a Transhumeral Prosthesis Socket</t>
   </si>
   <si>
-    <t>Cutaneous/tactile haptic feedback in robotic teleoperation: Motivation, survey, and perspectives</t>
-  </si>
-  <si>
-    <t>Robot Programming by Demonstration: Trajectory Learning Enhanced by sEMG-Based User Hand Stiffness Estimation</t>
-  </si>
-  <si>
-    <t>Active inference and behavior trees for reactive action planning and execution in robotics</t>
-  </si>
-  <si>
     <t>Avoidance of Concave Obstacles through Rotation of Nonlinear Dynamics</t>
   </si>
   <si>
-    <t>Millimeter-Level Pick and Peg-in-Hole Task Achieved by Aerial Manipulator</t>
+    <t>Learning Robot Manipulation from Cross-Morphology Demonstration</t>
+  </si>
+  <si>
+    <t>Eliciting compatible demonstrations for multi-human imitation learning</t>
+  </si>
+  <si>
+    <t>Few-shot preference learning for human-in-the-loop rl</t>
+  </si>
+  <si>
+    <t>Perceiver-actor: A multi-task transformer for robotic manipulation</t>
+  </si>
+  <si>
+    <t>Latent plans for task-agnostic offline reinforcement learning</t>
+  </si>
+  <si>
+    <t>Transformers are adaptable task planners</t>
+  </si>
+  <si>
+    <t>Touching a nerf: Leveraging neural radiance fields for tactile sensory data generation</t>
+  </si>
+  <si>
+    <t>Proactive slip control by learned slip model and trajectory adaptation</t>
+  </si>
+  <si>
+    <t>Neuralgrasps: Learning implicit representations for grasps of multiple robotic hands</t>
+  </si>
+  <si>
+    <t>Learning the Dynamics of Compliant Tool-Environment Interaction for Visuo-Tactile Contact Servoing</t>
   </si>
   <si>
     <t>MOTO: Offline pre-training to online fine-tuning for model-based robot learning</t>
   </si>
   <si>
-    <t>Eliciting compatible demonstrations for multi-human imitation learning</t>
-  </si>
-  <si>
-    <t>Perceiver-actor: A multi-task transformer for robotic manipulation</t>
-  </si>
-  <si>
-    <t>Proactive slip control by learned slip model and trajectory adaptation</t>
-  </si>
-  <si>
-    <t>Learning the Dynamics of Compliant Tool-Environment Interaction for Visuo-Tactile Contact Servoing</t>
-  </si>
-  <si>
-    <t>Latent plans for task-agnostic offline reinforcement learning</t>
-  </si>
-  <si>
-    <t>Neuralgrasps: Learning implicit representations for grasps of multiple robotic hands</t>
+    <t>Motion policy networks</t>
+  </si>
+  <si>
+    <t>An unbiased look at datasets for visuo-motor pre-training</t>
   </si>
   <si>
     <t>Geometry Matching for Multi-Embodiment Grasping</t>
   </si>
   <si>
-    <t>Touching a nerf: Leveraging neural radiance fields for tactile sensory data generation</t>
+    <t>Playfusion: Skill acquisition via diffusion from language-annotated play</t>
+  </si>
+  <si>
+    <t>Learning to grasp the ungraspable with emergent extrinsic dexterity</t>
+  </si>
+  <si>
+    <t>Xskill: Cross embodiment skill discovery</t>
   </si>
   <si>
     <t>Precise Robotic Needle-Threading with Tactile Perception and Reinforcement Learning</t>
   </si>
   <si>
+    <t>Learning Dense Visual Descriptors using Image Augmentations for Robot Manipulation Tasks</t>
+  </si>
+  <si>
+    <t>Learning Reusable Manipulation Strategies</t>
+  </si>
+  <si>
+    <t>Deep black-box reinforcement learning with movement primitives</t>
+  </si>
+  <si>
+    <t>One-shot transfer of affordance regions? affcorrs!</t>
+  </si>
+  <si>
+    <t>Fine-Tuning Generative Models as an Inference Method for Robotic Tasks</t>
+  </si>
+  <si>
     <t>Simultaneous Learning of Contact and Continuous Dynamics</t>
   </si>
   <si>
-    <t>Deep black-box reinforcement learning with movement primitives</t>
-  </si>
-  <si>
-    <t>Motion policy networks</t>
-  </si>
-  <si>
-    <t>PairwiseNet: Pairwise Collision Distance Learning for High-dof Robot Systems</t>
-  </si>
-  <si>
-    <t>Playfusion: Skill acquisition via diffusion from language-annotated play</t>
-  </si>
-  <si>
-    <t>Fine-Tuning Generative Models as an Inference Method for Robotic Tasks</t>
-  </si>
-  <si>
-    <t>One-shot transfer of affordance regions? affcorrs!</t>
-  </si>
-  <si>
-    <t>Learning Dense Visual Descriptors using Image Augmentations for Robot Manipulation Tasks</t>
-  </si>
-  <si>
-    <t>Learning Markerless Robot-Depth Camera Calibration and End-Effector Pose Estimation</t>
-  </si>
-  <si>
-    <t>SCONE: A Food Scooping Robot Learning Framework with Active Perception</t>
-  </si>
-  <si>
-    <t>Learning to grasp the ungraspable with emergent extrinsic dexterity</t>
+    <t>Im2Contact: Vision-Based Contact Localization Without Touch or Force Sensing</t>
+  </si>
+  <si>
+    <t>Se (3)-equivariant relational rearrangement with neural descriptor fields</t>
   </si>
   <si>
     <t>Bayesian Object Models for Robotic Interaction with Differentiable Probabilistic Programming</t>
   </si>
   <si>
-    <t>Learning Reusable Manipulation Strategies</t>
+    <t>Tax-pose: Task-specific cross-pose estimation for robot manipulation</t>
   </si>
   <si>
     <t>SE (2)-Equivariant Pushing Dynamics Models for Tabletop Object Manipulations</t>
   </si>
   <si>
-    <t>Im2Contact: Vision-Based Contact Localization Without Touch or Force Sensing</t>
-  </si>
-  <si>
-    <t>Synthesizing Adversarial Visual Scenarios for Model-Based Robotic Control</t>
-  </si>
-  <si>
     <t>Towards Flexible Manufacturing: Motion Generation Concept for Coupled Multi-Robot Systems</t>
   </si>
   <si>
-    <t>Case Study: ROS-Based Fault Injection for Risk Analysis of Robotic Manipulator</t>
-  </si>
-  <si>
-    <t>LieGrasPFormer: Point Transformer-Based 6-DOF Grasp Detection with Lie Algebra Grasp Representation</t>
-  </si>
-  <si>
-    <t>Using knowledge representation and task planning for robot-agnostic skills on the example of contact-rich wiping tasks</t>
-  </si>
-  <si>
     <t>Architecture of a versatile digital twin with socket-based communication and azure dt</t>
   </si>
   <si>
     <t>Magnetic Flux Servoing for Precise Localization Based on Gradient Tensor Contractions</t>
   </si>
   <si>
-    <t>Dynamic Parameter Identification of the Kuka LBR Med Robot</t>
+    <t>Flexible Laboratory Automation System Based on Distributed Framework: Implementation for Press Process in Polymer Materials Development</t>
   </si>
   <si>
     <t>Self-Organization and Collaboration in Robotic Manufacturing Systems</t>
   </si>
   <si>
-    <t>An Evaluation of Open Source Trajectory Planners for Robotic Manipulators with Focus on Human-Robot Collaboration</t>
-  </si>
-  <si>
-    <t>An Intelligent Robotics Modular Architecture for Easy Adaptation to Novel Tasks and Applications</t>
+    <t>Learning Generalizable Tool Use with Non-rigid Grasp-pose Registration</t>
   </si>
   <si>
     <t>Delay Modelling and Measurement of Multi-Agent Systems with Digital Twins in a Gear Assembly Use Case</t>
   </si>
   <si>
-    <t>Flexible Laboratory Automation System Based on Distributed Framework: Implementation for Press Process in Polymer Materials Development</t>
-  </si>
-  <si>
-    <t>Learning Generalizable Tool Use with Non-rigid Grasp-pose Registration</t>
+    <t>Learn from Robot: Transferring Skills for Diverse Manipulation via Cycle Generative Networks</t>
+  </si>
+  <si>
+    <t>Safe Trajectory Sampling in Model-Based Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>A Modular End Effector with Active Rolling Fingertip for Picking Cloth-Like Objects</t>
   </si>
   <si>
     <t>Vision-Based Potential Field Path Planning for Robot Obstacle Avoidance Under Field-of-View Constraints</t>
@@ -578,9 +608,6 @@
     <t>A Task-Aware Lightweight Link Design Framework for Robots Under Dynamic Loading</t>
   </si>
   <si>
-    <t>Exploring the Capabilities of a General-Purpose Robotic Arm in Chess Gameplay</t>
-  </si>
-  <si>
     <t>A Learning Framework for Human-Like Time Parameterization of Robot Manipulation Paths</t>
   </si>
   <si>
@@ -593,45 +620,1449 @@
     <t>AM-SGCN: Tactile Object Recognition for Adaptive Multichannel Spiking Graph Convolutional Neural Networks</t>
   </si>
   <si>
+    <t>Design of Capacitive Pressure Sensors Integrated with Anisotropic Wedge Microstructure Based Dielectric Layer</t>
+  </si>
+  <si>
+    <t>Open-Source Reinforcement Learning Environments Implemented in MuJoCo with Franka Manipulator</t>
+  </si>
+  <si>
+    <t>A Black-Box Physics-Informed Estimator based on Gaussian Process Regression for Robot Inverse Dynamics Identification</t>
+  </si>
+  <si>
+    <t>Open x-embodiment: Robotic learning datasets and rt-x models</t>
+  </si>
+  <si>
+    <t>Communicating human intent to a robotic companion by multi-type gesture sentences</t>
+  </si>
+  <si>
+    <t>Domain Randomization for Sim2real Transfer of Automatically Generated Grasping Datasets</t>
+  </si>
+  <si>
+    <t>LocoMuJoCo: A Comprehensive Imitation Learning Benchmark for Locomotion</t>
+  </si>
+  <si>
+    <t>Learning Sparse Control Tasks from Pixels by Latent Nearest-Neighbor-Guided Explorations</t>
+  </si>
+  <si>
+    <t>OpenVR: Teleoperation for Manipulation</t>
+  </si>
+  <si>
+    <t>Visually Guided Model Predictive Robot Control via 6D Object Pose Localization and Tracking</t>
+  </si>
+  <si>
+    <t>Constrained generative sampling of 6-dof grasps</t>
+  </si>
+  <si>
+    <t>Collision-free Motion Generation Based on Stochastic Optimization and Composite Signed Distance Field Networks of Articulated Robot</t>
+  </si>
+  <si>
+    <t>Polybot: Training one policy across robots while embracing variability</t>
+  </si>
+  <si>
+    <t>Focus: Object-centric world models for robotics manipulation</t>
+  </si>
+  <si>
+    <t>A Distance-Geometric Method for Recovering Robot Joint Angles From an RGB Image</t>
+  </si>
+  <si>
+    <t>Whole-body exploration with a manipulator using heat equation</t>
+  </si>
+  <si>
+    <t>Forward Dynamics Estimation from Data-Driven Inverse Dynamics Learning</t>
+  </si>
+  <si>
+    <t>Zero-Shot Constrained Motion Planning Transformers Using Learned Sampling Dictionaries</t>
+  </si>
+  <si>
+    <t>Team Northeastern's Approach to ANA XPRIZE Avatar Final Testing: A Holistic Approach to Telepresence and Lessons Learned</t>
+  </si>
+  <si>
+    <t>BaRiFlex: A Robotic Gripper with Versatility and Collision Robustness for Robot Learning</t>
+  </si>
+  <si>
+    <t>Learning robot geometry as distance fields: Applications to whole-body manipulation</t>
+  </si>
+  <si>
+    <t>AR2-D2: Training a Robot Without a Robot</t>
+  </si>
+  <si>
+    <t>Gello: A general, low-cost, and intuitive teleoperation framework for robot manipulators</t>
+  </si>
+  <si>
+    <t>Physics-informed Neural Networks to Model and Control Robots: a Theoretical and Experimental Investigation</t>
+  </si>
+  <si>
+    <t>One ACT Play: Single Demonstration Behavior Cloning with Action Chunking Transformers</t>
+  </si>
+  <si>
+    <t>Extending the Cooperative Dual-Task Space in Conformal Geometric Algebra</t>
+  </si>
+  <si>
+    <t>Contact Optimization with Learning from Demonstration: Application in Long-term Non-prehensile Planar Manipulation</t>
+  </si>
+  <si>
+    <t>Geometric Projectors: Geometric Constraints based Optimization for Robot Behaviors</t>
+  </si>
+  <si>
+    <t>Learning to Act from Actionless Videos through Dense Correspondences</t>
+  </si>
+  <si>
+    <t>Roboagent: Generalization and efficiency in robot manipulation via semantic augmentations and action chunking</t>
+  </si>
+  <si>
+    <t>Robust Immersive Telepresence and Mobile Telemanipulation: NimbRo wins ANA Avatar XPRIZE Finals</t>
+  </si>
+  <si>
+    <t>Bridging Action Space Mismatch in Learning from Demonstrations</t>
+  </si>
+  <si>
+    <t>Meta-Policy Learning over Plan Ensembles for Robust Articulated Object Manipulation</t>
+  </si>
+  <si>
+    <t>RoboHive: A Unified Framework for Robot Learning</t>
+  </si>
+  <si>
+    <t>Interactive Robot Learning from Verbal Correction</t>
+  </si>
+  <si>
+    <t>A Grasp Pose is All You Need: Learning Multi-fingered Grasping with Deep Reinforcement Learning from Vision and Touch</t>
+  </si>
+  <si>
+    <t>DFL-TORO: A One-Shot Demonstration Framework for Learning Time-Optimal Robotic Manufacturing Tasks</t>
+  </si>
+  <si>
+    <t>RoboFiSense: Attention-Based Robotic Arm Activity Recognition with WiFi Sensing</t>
+  </si>
+  <si>
+    <t>An Incremental Inverse Reinforcement Learning Approach for Motion Planning with Human Preferences</t>
+  </si>
+  <si>
+    <t>Voxposer: Composable 3d value maps for robotic manipulation with language models</t>
+  </si>
+  <si>
+    <t>Happily Error After: Framework Development and User Study for Correcting Robot Perception Errors in Virtual Reality</t>
+  </si>
+  <si>
+    <t>Learning to Grasp: from Somewhere to Anywhere</t>
+  </si>
+  <si>
+    <t>Pave the Way to Grasp Anything: Transferring Foundation Models for Universal Pick-Place Robots</t>
+  </si>
+  <si>
+    <t>Design of an Energy-Aware Cartesian Impedance Controller for Collaborative Disassembly</t>
+  </si>
+  <si>
+    <t>Safe Navigation and Obstacle Avoidance Using Differentiable Optimization Based Control Barrier Functions</t>
+  </si>
+  <si>
+    <t>Meta Learning for Multi-View Visuomotor Systems</t>
+  </si>
+  <si>
+    <t>Scalable and Efficient Continual Learning from Demonstration via Hypernetwork-generated Stable Dynamics Model</t>
+  </si>
+  <si>
+    <t>Act3d: Infinite resolution action detection transformer for robotic manipulation</t>
+  </si>
+  <si>
+    <t>Seq2Seq Imitation Learning for Tactile Feedback-based Manipulation</t>
+  </si>
+  <si>
+    <t>Roboclip: one demonstration is enough to learn robot policies</t>
+  </si>
+  <si>
+    <t>Errors are Useful Prompts: Instruction Guided Task Programming with Verifier-Assisted Iterative Prompting</t>
+  </si>
+  <si>
+    <t>Adaptive Contact-Implicit Model Predictive Control with Online Residual Learning</t>
+  </si>
+  <si>
+    <t>Inverse Constraint Learning and Generalization by Transferable Reward Decomposition</t>
+  </si>
+  <si>
+    <t>Structured world models from human videos</t>
+  </si>
+  <si>
+    <t>Mimicplay: Long-horizon imitation learning by watching human play</t>
+  </si>
+  <si>
+    <t>Natural Language Robot Programming: NLP integrated with autonomous robotic grasping</t>
+  </si>
+  <si>
+    <t>Text2reward: Automated dense reward function generation for reinforcement learning</t>
+  </si>
+  <si>
+    <t>Noir: Neural signal operated intelligent robots for everyday activities</t>
+  </si>
+  <si>
+    <t>Audio visual language maps for robot navigation</t>
+  </si>
+  <si>
+    <t>GAMMA: Generalizable Articulation Modeling and Manipulation for Articulated Objects</t>
+  </si>
+  <si>
+    <t>Embodiedgpt: Vision-language pre-training via embodied chain of thought</t>
+  </si>
+  <si>
+    <t>CppFlow: Generative Inverse Kinematics for Efficient and Robust Cartesian Path Planning</t>
+  </si>
+  <si>
+    <t>Efficient RL via disentangled environment and agent representations</t>
+  </si>
+  <si>
+    <t>Robotic Fabric Flattening with Wrinkle Direction Detection</t>
+  </si>
+  <si>
+    <t>Immersive Demonstrations are the Key to Imitation Learning</t>
+  </si>
+  <si>
+    <t>GoNet: An Approach-Constrained Generative Grasp Sampling Network</t>
+  </si>
+  <si>
+    <t>Learning Language-Conditioned Deformable Object Manipulation with Graph Dynamics</t>
+  </si>
+  <si>
+    <t>Zero-shot robotic manipulation with pretrained image-editing diffusion models</t>
+  </si>
+  <si>
+    <t>Fluid Property Prediction Leveraging AI and Robotics</t>
+  </si>
+  <si>
+    <t>Train Offline, Test Online: A Real Robot Learning Benchmark</t>
+  </si>
+  <si>
+    <t>Granular Gym: High Performance Simulation for Robotic Tasks with Granular Materials</t>
+  </si>
+  <si>
+    <t>Deep Functional Predictive Control for Strawberry Cluster Manipulation using Tactile Prediction</t>
+  </si>
+  <si>
+    <t>Safe Physical Human-Robot Interaction through Variable Impedance Control based on ISO/TS 15066</t>
+  </si>
+  <si>
+    <t>BeBOP--Combining Reactive Planning and Bayesian Optimization to Solve Robotic Manipulation Tasks</t>
+  </si>
+  <si>
+    <t>What do we learn from a large-scale study of pre-trained visual representations in sim and real environments?</t>
+  </si>
+  <si>
+    <t>Differentiable Optimization Based Time-Varying Control Barrier Functions for Dynamic Obstacle Avoidance</t>
+  </si>
+  <si>
+    <t>Rh20t: A robotic dataset for learning diverse skills in one-shot</t>
+  </si>
+  <si>
+    <t>QDP: Learning to Sequentially Optimise Quasi-Static and Dynamic Manipulation Primitives for Robotic Cloth Manipulation</t>
+  </si>
+  <si>
+    <t>Self-Improving Robots: End-to-End Autonomous Visuomotor Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Contact Energy Based Hindsight Experience Prioritization</t>
+  </si>
+  <si>
+    <t>Collision-aware In-hand 6D Object Pose Estimation using Multiple Vision-based Tactile Sensors</t>
+  </si>
+  <si>
+    <t>Motions in Microseconds via Vectorized Sampling-Based Planning</t>
+  </si>
+  <si>
+    <t>Human-oriented Representation Learning for Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>A Vision-Guided Robotic System for Grasping Harvested Tomato Trusses in Cluttered Environments</t>
+  </si>
+  <si>
+    <t>CAPGrasp: An  Continuous Approach-Constrained Generative Grasp Sampler</t>
+  </si>
+  <si>
+    <t>Human-assisted continual robot learning with foundation models</t>
+  </si>
+  <si>
+    <t>Towards Reuse and Recycling of Lithium-ion Batteries: Tele-robotics for Disassembly of Electric Vehicle Batteries</t>
+  </si>
+  <si>
+    <t>Robot-Enabled Construction Assembly with Automated Sequence Planning based on ChatGPT: RoboGPT</t>
+  </si>
+  <si>
+    <t>Giving Robots a Hand: Learning Generalizable Manipulation with Eye-in-Hand Human Video Demonstrations</t>
+  </si>
+  <si>
+    <t>Look before you leap: Unveiling the power of gpt-4v in robotic vision-language planning</t>
+  </si>
+  <si>
+    <t>Perceiving Extrinsic Contacts from Touch Improves Learning Insertion Policies</t>
+  </si>
+  <si>
+    <t>HOI4ABOT: Human-Object Interaction Anticipation for Human Intention Reading Collaborative roBOTs</t>
+  </si>
+  <si>
+    <t>A Universal Semantic-Geometric Representation for Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Non-parametric regression for robot learning on manifolds</t>
+  </si>
+  <si>
+    <t>Policy Stitching: Learning Transferable Robot Policies</t>
+  </si>
+  <si>
+    <t>CenterGrasp: Object-Aware Implicit Representation Learning for Simultaneous Shape Reconstruction and 6-DoF Grasp Estimation</t>
+  </si>
+  <si>
+    <t>Alan: Autonomously exploring robotic agents in the real world</t>
+  </si>
+  <si>
+    <t>Flexible Gear Assembly With Visual Servoing and Force Feedback</t>
+  </si>
+  <si>
+    <t>Sequential dexterity: Chaining dexterous policies for long-horizon manipulation</t>
+  </si>
+  <si>
+    <t>Distilling and retrieving generalizable knowledge for robot manipulation via language corrections</t>
+  </si>
+  <si>
+    <t>SculptBot: Pre-Trained Models for 3D Deformable Object Manipulation</t>
+  </si>
+  <si>
+    <t>RFTrans: Leveraging Refractive Flow of Transparent Objects for Surface Normal Estimation and Manipulation</t>
+  </si>
+  <si>
+    <t>RETRO: Reactive Trajectory Optimization for Real-Time Robot Motion Planning in Dynamic Environments</t>
+  </si>
+  <si>
+    <t>Robotap: Tracking arbitrary points for few-shot visual imitation</t>
+  </si>
+  <si>
+    <t>Robochop: Autonomous framework for fruit and vegetable chopping leveraging foundational models</t>
+  </si>
+  <si>
+    <t>Decoupling Skill Learning from Robotic Control for Generalizable Object Manipulation</t>
+  </si>
+  <si>
+    <t>Robust Conformal Prediction for STL Runtime Verification under Distribution Shift</t>
+  </si>
+  <si>
+    <t>Unleashing Large-Scale Video Generative Pre-training for Visual Robot Manipulation</t>
+  </si>
+  <si>
+    <t>Material-agnostic Shaping of Granular Materials with Optimal Transport</t>
+  </si>
+  <si>
+    <t>Detecting Worker Attention Lapses in Human-Robot Interaction: An Eye Tracking and Multimodal Sensing Study</t>
+  </si>
+  <si>
+    <t>Gen2sim: Scaling up robot learning in simulation with generative models</t>
+  </si>
+  <si>
+    <t>M2T2: Multi-Task Masked Transformer for Object-centric Pick and Place</t>
+  </si>
+  <si>
+    <t>A Robust Open-source Tendon-driven Robot Arm for Learning Control of Dynamic Motions</t>
+  </si>
+  <si>
+    <t>SynH2R: Synthesizing Hand-Object Motions for Learning Human-to-Robot Handovers</t>
+  </si>
+  <si>
+    <t>Containerized Vertical Farming Using Cobots</t>
+  </si>
+  <si>
+    <t>Self-Refined Large Language Model as Automated Reward Function Designer for Deep Reinforcement Learning in Robotics</t>
+  </si>
+  <si>
+    <t>Learning Safe and Stable Motion Plans with Neural Ordinary Differential Equations</t>
+  </si>
+  <si>
+    <t>Push it to the Demonstrated Limit: Multimodal Visuotactile Imitation Learning with Force Matching</t>
+  </si>
+  <si>
+    <t>Keyframe Demonstration Seeded and Bayesian Optimized Policy Search</t>
+  </si>
+  <si>
+    <t>For pre-trained vision models in motor control, not all policy learning methods are created equal</t>
+  </si>
+  <si>
+    <t>Learning fine-grained bimanual manipulation with low-cost hardware</t>
+  </si>
+  <si>
+    <t>Accelerating Reinforcement Learning of Robotic Manipulations via Feedback from Large Language Models</t>
+  </si>
+  <si>
+    <t>Visual Affordance Prediction for Guiding Robot Exploration</t>
+  </si>
+  <si>
+    <t>Compositional Diffusion-Based Continuous Constraint Solvers</t>
+  </si>
+  <si>
+    <t>Large language models as zero-shot human models for human-robot interaction</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning with Parameterized Manipulation Primitives for Robotic Assembly</t>
+  </si>
+  <si>
+    <t>Combining Vision and Tactile Sensation for Video Prediction</t>
+  </si>
+  <si>
+    <t>Embracing Safe Contacts with Contact-aware Planning and Control</t>
+  </si>
+  <si>
+    <t>Euclidean Equivariant Models for Generative Graphical Inverse Kinematics</t>
+  </si>
+  <si>
+    <t>MultiSCOPE: Disambiguating In-Hand Object Poses with Proprioception and Tactile Feedback</t>
+  </si>
+  <si>
+    <t>RVT: Robotic View Transformer for 3D Object Manipulation</t>
+  </si>
+  <si>
+    <t>Robot Learning with Sensorimotor Pre-training</t>
+  </si>
+  <si>
+    <t>Sensory Manipulation as a Countermeasure to Robot Teleoperation Delays: System and Evidence</t>
+  </si>
+  <si>
+    <t>Learning Multi-Step Manipulation Tasks from A Single Human Demonstration</t>
+  </si>
+  <si>
+    <t>Exp [licit]-A Robot modeling Software based on Exponential Maps</t>
+  </si>
+  <si>
+    <t>Diffusion policy: Visuomotor policy learning via action diffusion</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning in a Safety-Embedded MDP with Trajectory Optimization</t>
+  </si>
+  <si>
+    <t>Manipulate by Seeing: Creating Manipulation Controllers</t>
+  </si>
+  <si>
+    <t>Robot Skill Generalization via Keypoint Integrated Soft Actor-Critic Gaussian Mixture Models</t>
+  </si>
+  <si>
+    <t>Rapid Motor Adaptation for Robotic Manipulator Arms</t>
+  </si>
+  <si>
+    <t>Robotic surface exploration with vision and tactile sensing for cracks detection and characterisation</t>
+  </si>
+  <si>
+    <t>Vision-language foundation models as effective robot imitators</t>
+  </si>
+  <si>
+    <t>Large language models as general pattern machines</t>
+  </si>
+  <si>
+    <t>Learning fine pinch-grasp skills using tactile sensing from real demonstration data</t>
+  </si>
+  <si>
+    <t>Affordance-Driven Next-Best-View Planning for Robotic Grasping</t>
+  </si>
+  <si>
+    <t>A Benchmarking Study on Vision-Based Grasp Synthesis Algorithms</t>
+  </si>
+  <si>
+    <t>PRIMP: PRobabilistically-Informed Motion Primitives for Efficient Affordance Learning from Demonstration</t>
+  </si>
+  <si>
+    <t>Leveraging scene embeddings for gradient-based motion Planning in latent space</t>
+  </si>
+  <si>
+    <t>Zero-Shot Transfer of Haptics-Based Object Insertion Policies</t>
+  </si>
+  <si>
+    <t>Sg-bot: Object rearrangement via coarse-to-fine robotic imagination on scene graphs</t>
+  </si>
+  <si>
+    <t>" You Might Like It": How People Respond to Small Talk in Human-Robot Collaboration</t>
+  </si>
+  <si>
+    <t>Lossless adaptation of pretrained vision models for robotic manipulation</t>
+  </si>
+  <si>
+    <t>Low-cost exoskeletons for learning whole-arm manipulation in the wild</t>
+  </si>
+  <si>
+    <t>Consensus Complementarity Control for Multi-Contact MPC</t>
+  </si>
+  <si>
+    <t>Bayes3D: fast learning and inference in structured generative models of 3D objects and scenes</t>
+  </si>
+  <si>
+    <t>NOD-TAMP: Multi-Step Manipulation Planning with Neural Object Descriptors</t>
+  </si>
+  <si>
+    <t>Predicting Motion Plans for Articulating Everyday Objects</t>
+  </si>
+  <si>
+    <t>Proprioceptive Sensor-Based Simultaneous Multi-Contact Point Localization and Force Identification for Robotic Arms</t>
+  </si>
+  <si>
+    <t>Learning from Few Demonstrations with Frame-Weighted Motion Generation</t>
+  </si>
+  <si>
+    <t>PolyTask: Learning Unified Policies through Behavior Distillation</t>
+  </si>
+  <si>
+    <t>RL-ViGen: A Reinforcement Learning Benchmark for Visual Generalization</t>
+  </si>
+  <si>
+    <t>Efficient Skill Acquisition for Complex Manipulation Tasks in Obstructed Environments</t>
+  </si>
+  <si>
+    <t>LARG, Language-based Automatic Reward and Goal Generation</t>
+  </si>
+  <si>
+    <t>gafro: Geometric Algebra for Robotics</t>
+  </si>
+  <si>
+    <t>Local Neural Descriptor Fields: Locally Conditioned Object Representations for Manipulation</t>
+  </si>
+  <si>
+    <t>Kinematic-aware Prompting for Generalizable Articulated Object Manipulation with LLMs</t>
+  </si>
+  <si>
+    <t>Energy-based models as zero-shot planners for compositional scene rearrangement</t>
+  </si>
+  <si>
+    <t>cuRobo: Parallelized Collision-Free Minimum-Jerk Robot Motion Generation</t>
+  </si>
+  <si>
+    <t>Learning from demonstration via probabilistic diagrammatic teaching</t>
+  </si>
+  <si>
+    <t>Local object crop collision network for efficient simulation of non-convex objects in GPU-based simulators</t>
+  </si>
+  <si>
+    <t>Interactive Visual Task Learning for Robots</t>
+  </si>
+  <si>
+    <t>Towards Building AI-CPS with NVIDIA Isaac Sim: An Industrial Benchmark and Case Study for Robotics Manipulation</t>
+  </si>
+  <si>
+    <t>Model-Based Runtime Monitoring with Interactive Imitation Learning</t>
+  </si>
+  <si>
+    <t>Learning generalizable manipulation policies with object-centric 3d representations</t>
+  </si>
+  <si>
+    <t>Learning Extrinsic Dexterity with Parameterized Manipulation Primitives</t>
+  </si>
+  <si>
+    <t>Projection-based first-order constrained optimization solver for robotics</t>
+  </si>
+  <si>
+    <t>Laboratory Automation: Precision Insertion with Adaptive Fingers utilizing Contact through Sliding with Tactile-based Pose Estimation</t>
+  </si>
+  <si>
+    <t>ImageManip: Image-based Robotic Manipulation with Affordance-guided Next View Selection</t>
+  </si>
+  <si>
+    <t>Dynamic Manipulation of a Deformable Linear Object: Simulation and Learning</t>
+  </si>
+  <si>
+    <t>High-Degrees-of-Freedom Dynamic Neural Fields for Robot Self-Modeling and Motion Planning</t>
+  </si>
+  <si>
+    <t>ONE PIECE: One Patchwork In Effectively Combined Extraction for grasp</t>
+  </si>
+  <si>
+    <t>RGBGrasp: Image-based Object Grasping by Capturing Multiple Views during Robot Arm Movement with Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>Mimicgen: A data generation system for scalable robot learning using human demonstrations</t>
+  </si>
+  <si>
+    <t>Few-shot in-context imitation learning via implicit graph alignment</t>
+  </si>
+  <si>
+    <t>RoboCook: Long-Horizon Elasto-Plastic Object Manipulation with Diverse Tools</t>
+  </si>
+  <si>
+    <t>Pour me a drink: Robotic Precision Pouring Carbonated Beverages into Transparent Containers</t>
+  </si>
+  <si>
+    <t>Diffusion-edfs: Bi-equivariant denoising generative modeling on se (3) for visual robotic manipulation</t>
+  </si>
+  <si>
+    <t>Constrained-Context Conditional Diffusion Models for Imitation Learning</t>
+  </si>
+  <si>
+    <t>Doduo: Learning Dense Visual Correspondence from Unsupervised Semantic-Aware Flow</t>
+  </si>
+  <si>
+    <t>Imitation Learning-based Visual Servoing for Tracking Moving Objects</t>
+  </si>
+  <si>
+    <t>ManipLLM: Embodied Multimodal Large Language Model for Object-Centric Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Uncertainty-driven Exploration Strategies for Online Grasp Learning</t>
+  </si>
+  <si>
+    <t>IoHRT: An Open-Source Unified Framework Towards the Internet of Humans and Robotic Things with Cloud Computing for Home-Care Applications</t>
+  </si>
+  <si>
+    <t>Roco: Dialectic multi-robot collaboration with large language models</t>
+  </si>
+  <si>
+    <t>SPONGE: Sequence Planning with Deformable-ON-Rigid Contact Prediction from Geometric Features</t>
+  </si>
+  <si>
+    <t>Describing Robots from Design to Learning: Towards an Interactive Lifecycle Representation of Robots</t>
+  </si>
+  <si>
+    <t>TeachingBot: Robot Teacher for Human Handwriting</t>
+  </si>
+  <si>
+    <t>Context-aware robot control using gesture episodes</t>
+  </si>
+  <si>
+    <t>Learning a Stable Dynamic System with a Lyapunov Energy Function for Demonstratives Using Neural Networks</t>
+  </si>
+  <si>
+    <t>Hierarchical Reinforcement Learning based on Planning Operators</t>
+  </si>
+  <si>
+    <t>Autonomous Robotic Reinforcement Learning with Asynchronous Human Feedback</t>
+  </si>
+  <si>
+    <t>Signal Temporal Logic-Guided Apprenticeship Learning</t>
+  </si>
+  <si>
+    <t>Learning-Free Grasping of Unknown Objects Using Hidden Superquadrics</t>
+  </si>
+  <si>
+    <t>Integrated Object Deformation and Contact Patch Estimation from Visuo-Tactile Feedback</t>
+  </si>
+  <si>
+    <t>Remote Task-oriented Grasp Area Teaching By Non-Experts through Interactive Segmentation and Few-Shot Learning</t>
+  </si>
+  <si>
+    <t>MoDem-V2: Visuo-Motor World Models for Real-World Robot Manipulation</t>
+  </si>
+  <si>
+    <t>Autotuning Symbolic Optimization Fabrics for Trajectory Generation</t>
+  </si>
+  <si>
+    <t>ManiCast: Collaborative Manipulation with Cost-Aware Human Forecasting</t>
+  </si>
+  <si>
+    <t>Cross-Tool and Cross-Behavior Perceptual Knowledge Transfer for Grounded Object Recognition</t>
+  </si>
+  <si>
+    <t>Autonomous Strawberry Picking Robotic System (Robofruit)</t>
+  </si>
+  <si>
+    <t>Where2explore: Few-shot affordance learning for unseen novel categories of articulated objects</t>
+  </si>
+  <si>
+    <t>Kite: Keypoint-conditioned policies for semantic manipulation</t>
+  </si>
+  <si>
+    <t>End-to-End Stable Imitation Learning via Autonomous Neural Dynamic Policies</t>
+  </si>
+  <si>
+    <t>Intersection-free Robot Manipulation with Soft-Rigid Coupled Incremental Potential Contact</t>
+  </si>
+  <si>
+    <t>IndustReal: Transferring Contact-Rich Assembly Tasks from Simulation to Reality</t>
+  </si>
+  <si>
+    <t>Robogen: Towards unleashing infinite data for automated robot learning via generative simulation</t>
+  </si>
+  <si>
+    <t>Dual-Material 3D-Printed PaCoMe-Like Fingers for Flexible Biolaboratory Automation</t>
+  </si>
+  <si>
+    <t>A Reactive performance-based Shared Control Framework for Assistive Robotic Manipulators</t>
+  </si>
+  <si>
+    <t>DefGraspNets: Grasp Planning on 3D Fields with Graph Neural Nets</t>
+  </si>
+  <si>
+    <t>Distilled feature fields enable few-shot language-guided manipulation</t>
+  </si>
+  <si>
+    <t>The e-Bike Motor Assembly: Towards Advanced Robotic Manipulation for Flexible Manufacturing</t>
+  </si>
+  <si>
+    <t>A Unifying Variational Framework for Gaussian Process Motion Planning</t>
+  </si>
+  <si>
+    <t>AO-Grasp: Articulated Object Grasp Generation</t>
+  </si>
+  <si>
+    <t>VFAS-Grasp: Closed Loop Grasping with Visual Feedback and Adaptive Sampling</t>
+  </si>
+  <si>
+    <t>Behavior Retrieval: Few-Shot Imitation Learning by Querying Unlabeled Datasets</t>
+  </si>
+  <si>
+    <t>RoboCat: A Self-Improving Foundation Agent for Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Intrinsic Language-Guided Exploration for Complex Long-Horizon Robotic Manipulation Tasks</t>
+  </si>
+  <si>
+    <t>Efficient Online Learning of Contact Force Models for Connector Insertion</t>
+  </si>
+  <si>
+    <t>CabiNet: Scaling Neural Collision Detection for Object Rearrangement with Procedural Scene Generation</t>
+  </si>
+  <si>
+    <t>Information Maximizing Curriculum: A Curriculum-Based Approach for Training Mixtures of Experts</t>
+  </si>
+  <si>
+    <t>RGBManip: Monocular Image-based Robotic Manipulation through Active Object Pose Estimation</t>
+  </si>
+  <si>
+    <t>Neural feels with neural fields: Visuo-tactile perception for in-hand manipulation</t>
+  </si>
+  <si>
+    <t>Foundation models in robotics: Applications, challenges, and the future</t>
+  </si>
+  <si>
+    <t>Interactive Planning Using Large Language Models for Partially Observable Robotics Tasks</t>
+  </si>
+  <si>
+    <t>Jigsaw-based Benchmarking for Learning Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>What Matters to You? Towards Visual Representation Alignment for Robot Learning</t>
+  </si>
+  <si>
+    <t>Sampling-based model predictive control leveraging parallelizable physics simulations</t>
+  </si>
+  <si>
+    <t>Language-driven representation learning for robotics</t>
+  </si>
+  <si>
+    <t>Asymptotically Optimal Belief Space Planning in Discrete Partially-Observable Domains</t>
+  </si>
+  <si>
+    <t>EDMP: Ensemble-of-costs-guided Diffusion for Motion Planning</t>
+  </si>
+  <si>
+    <t>LHManip: A Dataset for Long-Horizon Language-Grounded Manipulation Tasks in Cluttered Tabletop Environments</t>
+  </si>
+  <si>
+    <t>Runtime optimization of acquisition trajectories for X-ray computed tomography with a robotic sample holder</t>
+  </si>
+  <si>
+    <t>MUTEX: Learning unified policies from multimodal task specifications</t>
+  </si>
+  <si>
+    <t>Path Signatures for Diversity in Probabilistic Trajectory Optimisation</t>
+  </si>
+  <si>
+    <t>InteRACT: Transformer Models for Human Intent Prediction Conditioned on Robot Actions</t>
+  </si>
+  <si>
+    <t>Symmetric models for visual force policy learning</t>
+  </si>
+  <si>
+    <t>Learning Sequential Acquisition Policies for Robot-Assisted Feeding</t>
+  </si>
+  <si>
+    <t>Multi Time Scale World Models</t>
+  </si>
+  <si>
+    <t>Sim2Real Bilevel Adaptation for Object Surface Classification using Vision-Based Tactile Sensors</t>
+  </si>
+  <si>
+    <t>Gravity-aware Grasp Generation with Implicit Grasp Mode Selection for Underactuated Hands</t>
+  </si>
+  <si>
+    <t>Navigating phase diagram complexity to guide robotic inorganic materials synthesis</t>
+  </si>
+  <si>
+    <t>Quasi-static Soft Fixture Analysis of Rigid and Deformable Objects</t>
+  </si>
+  <si>
+    <t>TacFR-Gripper: A Reconfigurable Fin Ray-Based Compliant Robotic Gripper with Tactile Skin for In-Hand Manipulation</t>
+  </si>
+  <si>
+    <t>Co-speech gestures for human-robot collaboration</t>
+  </si>
+  <si>
+    <t>HiCRISP: A Hierarchical Closed-Loop Robotic Intelligent Self-Correction Planner</t>
+  </si>
+  <si>
+    <t>Generalizable long-horizon manipulations with large language models</t>
+  </si>
+  <si>
+    <t>Vision-language models as success detectors</t>
+  </si>
+  <si>
+    <t>A Control-Centric Benchmark for Video Prediction</t>
+  </si>
+  <si>
+    <t>The Treachery of Images: Bayesian Scene Keypoints for Deep Policy Learning in Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Human Demonstrations are Generalizable Knowledge for Robots</t>
+  </si>
+  <si>
+    <t>Self-Supervised Curriculum Generation for Autonomous Reinforcement Learning without Task-Specific Knowledge</t>
+  </si>
+  <si>
+    <t>GRaCE: Optimizing Grasps to Satisfy Ranked Criteria in Complex Scenario</t>
+  </si>
+  <si>
+    <t>MimicTouch: Learning Human's Control Strategy with Multi-Modal Tactile Feedback</t>
+  </si>
+  <si>
+    <t>Data-Driven Stochastic Motion Evaluation and Optimization with Image by Spatially-Aligned Temporal Encoding</t>
+  </si>
+  <si>
+    <t>Cal-ql: Calibrated offline rl pre-training for efficient online fine-tuning</t>
+  </si>
+  <si>
+    <t>Language to Rewards for Robotic Skill Synthesis</t>
+  </si>
+  <si>
+    <t>Less is more: Robust robot learning via partially observable multi-agent reinforcement learning</t>
+  </si>
+  <si>
+    <t>Vid2Act: Activate Offline Videos for Visual RL</t>
+  </si>
+  <si>
+    <t>NICOL: A Neuro-inspired Collaborative Semi-humanoid Robot that Bridges Social Interaction and Reliable Manipulation</t>
+  </si>
+  <si>
+    <t>Proprioceptive State Estimation for Amphibious Tactile Sensing</t>
+  </si>
+  <si>
+    <t>Flexible Informed Trees (FIT*): Adaptive Batch-Size Approach for Informed Sampling-Based Planner</t>
+  </si>
+  <si>
+    <t>SIMBa: System Identification Methods leveraging Backpropagation</t>
+  </si>
+  <si>
+    <t>Understanding URDF: A survey based on user experience</t>
+  </si>
+  <si>
+    <t>Video Prediction Models as Rewards for Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>ARNOLD: A Benchmark for Language-Grounded Task Learning With Continuous States in Realistic 3D Scenes</t>
+  </si>
+  <si>
+    <t>AlphaBlock: Embodied Finetuning for Vision-Language Reasoning in Robot Manipulation</t>
+  </si>
+  <si>
+    <t>Hiql: Offline goal-conditioned rl with latent states as actions</t>
+  </si>
+  <si>
+    <t>FurnitureBench: Reproducible Real-World Benchmark for Long-Horizon Complex Manipulation</t>
+  </si>
+  <si>
+    <t>Generalized object search</t>
+  </si>
+  <si>
+    <t>Wasserstein Gradient Flows for Optimizing Gaussian Mixture Policies</t>
+  </si>
+  <si>
+    <t>Model-Based Control with Sparse Neural Dynamics</t>
+  </si>
+  <si>
+    <t>Curriculum-Based Imitation of Versatile Skills</t>
+  </si>
+  <si>
+    <t>GraspLDM: Generative 6-DoF Grasp Synthesis using Latent Diffusion Models</t>
+  </si>
+  <si>
+    <t>: Policy Representations with Successor Features</t>
+  </si>
+  <si>
+    <t>PAPRAS: Plug-And-Play Robotic Arm System</t>
+  </si>
+  <si>
+    <t>Feasibility retargeting for multi-contact teleoperation and physical interaction</t>
+  </si>
+  <si>
+    <t>RAMP: A Benchmark for Evaluating Robotic Assembly Manipulation and Planning</t>
+  </si>
+  <si>
+    <t>Quantifying &amp; modeling feature interactions: An information decomposition framework</t>
+  </si>
+  <si>
+    <t>Enabling Robot Manipulation of Soft and Rigid Objects with Vision-based Tactile Sensors</t>
+  </si>
+  <si>
+    <t>Eureka: Human-level reward design via coding large language models</t>
+  </si>
+  <si>
+    <t>Approximating the Graph Edit Distance with Compact Neighborhood Representations</t>
+  </si>
+  <si>
+    <t>Universal Visual Decomposer: Long-Horizon Manipulation Made Easy</t>
+  </si>
+  <si>
+    <t>Prioritized Soft Q-Decomposition for Lexicographic Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Text2motion: From natural language instructions to feasible plans</t>
+  </si>
+  <si>
+    <t>Zero-shot Transferable and Persistently Feasible Safe Control for High Dimensional Systems by Consistent Abstraction</t>
+  </si>
+  <si>
+    <t>Non-Redundant Graph Neural Networks with Improved Expressiveness</t>
+  </si>
+  <si>
+    <t>Prepare the Chair for the Bear! Robot Imagination of Sitting Affordance to Reorient Previously Unseen Chairs</t>
+  </si>
+  <si>
+    <t>Jade: A differentiable physics engine for articulated rigid bodies with intersection-free frictional contact</t>
+  </si>
+  <si>
+    <t>Push Past Green: Learning to Look Behind Plant Foliage by Moving It</t>
+  </si>
+  <si>
+    <t>Learning Excavation of Rigid Objects with Offline Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Fluidlab: A differentiable environment for benchmarking complex fluid manipulation</t>
+  </si>
+  <si>
+    <t>Generalized Multi-Level Replanning TAMP Framework for Dynamic Environment</t>
+  </si>
+  <si>
+    <t>HomeRobot: Open-Vocabulary Mobile Manipulation</t>
+  </si>
+  <si>
+    <t>Learning Variable Impedance Skills from Demonstrations with Passivity Guarantee</t>
+  </si>
+  <si>
+    <t>Towards Assessing Compliant Robotic Grasping from First-Object Perspective via Instrumented Objects</t>
+  </si>
+  <si>
+    <t>Leap hand: Low-cost, efficient, and anthropomorphic hand for robot learning</t>
+  </si>
+  <si>
+    <t>Spherical acquisition trajectories for X-ray computed tomography with a robotic sample holder</t>
+  </si>
+  <si>
+    <t>Evetac: An Event-based Optical Tactile Sensor for Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Get Back Here: Robust Imitation by Return-to-Distribution Planning</t>
+  </si>
+  <si>
+    <t>CMG-Net: An End-to-End Contact-Based Multi-Finger Dexterous Grasping Network</t>
+  </si>
+  <si>
+    <t>Enhancing Grasping Performance of Novel Objects through an Improved Fine-Tuning Process</t>
+  </si>
+  <si>
+    <t>Zero-Shot Robot Manipulation from Passive Human Videos</t>
+  </si>
+  <si>
+    <t>RAMP: Hierarchical Reactive Motion Planning for Manipulation Tasks Using Implicit Signed Distance Functions</t>
+  </si>
+  <si>
+    <t>A Graph-based Optimization Framework for Hand-Eye Calibration for Multi-Camera Setups</t>
+  </si>
+  <si>
+    <t>Language-conditioned Learning for Robotic Manipulation: A Survey</t>
+  </si>
+  <si>
+    <t>Parallel Sampling of Diffusion Models</t>
+  </si>
+  <si>
+    <t>Instance-Agnostic Geometry and Contact Dynamics Learning</t>
+  </si>
+  <si>
+    <t>Learning to Read Braille: Bridging the Tactile Reality Gap with Diffusion Models</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning from Multiple Sensors via Joint Representations</t>
+  </si>
+  <si>
+    <t>Finite element inspired networks: Learning physically-plausible deformable object dynamics from partial observations</t>
+  </si>
+  <si>
+    <t>Modular and Parallelizable Multibody Physics Simulation via Subsystem-Based ADMM</t>
+  </si>
+  <si>
+    <t>Multi-view masked world models for visual robotic manipulation</t>
+  </si>
+  <si>
+    <t>Minigrid &amp; Miniworld: Modular &amp; Customizable Reinforcement Learning Environments for Goal-Oriented Tasks</t>
+  </si>
+  <si>
+    <t>Shelving, stacking, hanging: Relational pose diffusion for multi-modal rearrangement</t>
+  </si>
+  <si>
+    <t>LIV: Language-Image Representations and Rewards for Robotic Control</t>
+  </si>
+  <si>
+    <t>A Survey of Demonstration Learning</t>
+  </si>
+  <si>
+    <t>Quadratic Programming-based Reference Spreading Control for Dual-Arm Robotic Manipulation with Planned Simultaneous Impacts</t>
+  </si>
+  <si>
+    <t>A Comprehensive Architecture for Dynamic Role Allocation and Collaborative Task Planning in Mixed Human-Robot Teams</t>
+  </si>
+  <si>
+    <t>Uncertain Pose Estimation during Contact Tasks using Differentiable Contact Features</t>
+  </si>
+  <si>
+    <t>Benchmarks and algorithms for offline preference-based reward learning</t>
+  </si>
+  <si>
+    <t>Programmatically Grounded, Compositionally Generalizable Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>Constrained Equation Learner Networks for Precision-Preserving Extrapolation of Robotic Skills</t>
+  </si>
+  <si>
+    <t>Maniskill2: A unified benchmark for generalizable manipulation skills</t>
+  </si>
+  <si>
+    <t>SKT-Hang: Hanging Everyday Objects via Object-Agnostic Semantic Keypoint Trajectory Generation</t>
+  </si>
+  <si>
+    <t>Constrained Bimanual Planning with Analytic Inverse Kinematics</t>
+  </si>
+  <si>
+    <t>Goal-Conditioned Supervised Learning with Sub-Goal Prediction</t>
+  </si>
+  <si>
+    <t>MP3: Movement Primitive-Based (Re-) Planning Policy</t>
+  </si>
+  <si>
+    <t>Generalizable Imitation Learning Through Pre-Trained Representations</t>
+  </si>
+  <si>
+    <t>Spatial-Language Attention Policies for Efficient Robot Learning</t>
+  </si>
+  <si>
+    <t>Extreme q-learning: Maxent RL without entropy</t>
+  </si>
+  <si>
+    <t>Language-Conditioned Imitation Learning with Base Skill Priors under Unstructured Data</t>
+  </si>
+  <si>
+    <t>ContraBAR: Contrastive Bayes-Adaptive Deep RL</t>
+  </si>
+  <si>
+    <t>Redundancy parameterization and inverse kinematics of 7-DOF revolute manipulators</t>
+  </si>
+  <si>
+    <t>PEAR: Primitive enabled Adaptive Relabeling for boosting Hierarchical Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>SpawnNet: Learning Generalizable Visuomotor Skills from Pre-trained Networks</t>
+  </si>
+  <si>
+    <t>Lvlm-ehub: A comprehensive evaluation benchmark for large vision-language models</t>
+  </si>
+  <si>
+    <t>Learning Foresightful Dense Visual Affordance for Deformable Object Manipulation</t>
+  </si>
+  <si>
+    <t>CHSEL: Producing Diverse Plausible Pose Estimates from Contact and Free Space Data</t>
+  </si>
+  <si>
+    <t>A Simple Solution for Offline Imitation from Observations and Examples with Possibly Incomplete Trajectories</t>
+  </si>
+  <si>
+    <t>Proprioceptive Learning with Soft Polyhedral Networks</t>
+  </si>
+  <si>
+    <t>Grounding Graph Network Simulators using Physical Sensor Observations</t>
+  </si>
+  <si>
+    <t>Certified polyhedral decompositions of collision-free configuration space</t>
+  </si>
+  <si>
+    <t>A pose and shear-based tactile robotic system for object tracking, surface following and object pushing</t>
+  </si>
+  <si>
+    <t>Do You Need a Hand?--An Interactive Robotic Dressing Assistance Scheme</t>
+  </si>
+  <si>
+    <t>A Method for Multi-Robot Asynchronous Trajectory Execution in MoveIt2</t>
+  </si>
+  <si>
+    <t>AdaptSim: Task-Driven Simulation Adaptation for Sim-to-Real Transfer</t>
+  </si>
+  <si>
+    <t>Locality-Aware Graph-Rewiring in GNNs</t>
+  </si>
+  <si>
+    <t>Toward General-Purpose Robots via Foundation Models: A Survey and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Learning Orbitally Stable Systems for Diagrammatically Teaching</t>
+  </si>
+  <si>
+    <t>FRoGGeR: Fast Robust Grasp Generation via the Min-Weight Metric</t>
+  </si>
+  <si>
+    <t>Passivizing learned policies and learning passive policies with virtual energy tanks in robotics</t>
+  </si>
+  <si>
+    <t>RObotic MAnipulation Network (ROMAN)--Hybrid Hierarchical Learning for Solving Complex Sequential Tasks</t>
+  </si>
+  <si>
+    <t>A Bayesian approach to breaking things: efficiently predicting and repairing failure modes via sampling</t>
+  </si>
+  <si>
+    <t>Cooperative graph neural networks</t>
+  </si>
+  <si>
+    <t>A novel search strategy for right-handed charged gauge bosons at the Large Hadron Collider</t>
+  </si>
+  <si>
+    <t>Stable Modular Control via Contraction Theory for Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>LIMIT: Learning Interfaces to Maximize Information Transfer</t>
+  </si>
+  <si>
+    <t>Sensorless Physical Human-robot Interaction Using Deep-Learning</t>
+  </si>
+  <si>
+    <t>Reconciling collider signals, dark matter, and the muon anomalous magnetic moment in the supersymmetric  model</t>
+  </si>
+  <si>
+    <t>Energy-Aware Hierarchical Control of Joint Velocities</t>
+  </si>
+  <si>
+    <t>Accelerating Motion Planning via Optimal Transport</t>
+  </si>
+  <si>
+    <t>Efficient Robot Skill Learning with Imitation from a Single Video for Contact-Rich Fabric Manipulation</t>
+  </si>
+  <si>
+    <t>The CRAM Cognitive Architecture for Robot Manipulation in Everyday Activities</t>
+  </si>
+  <si>
+    <t>Distance Weighted Supervised Learning for Offline Interaction Data</t>
+  </si>
+  <si>
+    <t>Mitigating over-smoothing and over-squashing using augmentations of Forman-Ricci curvature</t>
+  </si>
+  <si>
+    <t>Toward Grounded Social Reasoning</t>
+  </si>
+  <si>
+    <t>Object-Aware Impedance Control for Human-Robot Collaborative Task with Online Object Parameter Estimation</t>
+  </si>
+  <si>
+    <t>Mirage: Model-agnostic graph distillation for graph classification</t>
+  </si>
+  <si>
+    <t>Software Reconfiguration in Robotics</t>
+  </si>
+  <si>
+    <t>PolarNet: 3D Point Clouds for Language-Guided Robotic Manipulation</t>
+  </si>
+  <si>
+    <t>On the Cauchy problem for a semi-linear hyperdissipative heat equation</t>
+  </si>
+  <si>
+    <t>Offline Skill Graph (OSG): A Framework for Learning and Planning using Offline Reinforcement Learning Skills</t>
+  </si>
+  <si>
+    <t>Temporal Logic Motion Planning with Convex Optimization via Graphs of Convex Sets</t>
+  </si>
+  <si>
+    <t>Preference transformer: Modeling human preferences using transformers for RL</t>
+  </si>
+  <si>
+    <t>Domain Randomization via Entropy Maximization</t>
+  </si>
+  <si>
+    <t>Structural Node Embeddings with Homomorphism Counts</t>
+  </si>
+  <si>
+    <t>RLIF: Interactive Imitation Learning as Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Self-supervised Cloth Reconstruction via Action-conditioned Cloth Tracking</t>
+  </si>
+  <si>
+    <t>Imitating Task and Motion Planning with Visuomotor Transformers</t>
+  </si>
+  <si>
+    <t>Understanding contrastive learning via distributionally robust optimization</t>
+  </si>
+  <si>
+    <t>Optimal Cost-Preference Trade-off Planning with Multiple Temporal Tasks</t>
+  </si>
+  <si>
+    <t>Towards Self-Interpretable Graph-Level Anomaly Detection</t>
+  </si>
+  <si>
+    <t>StyleDiffusion: Prompt-Embedding Inversion for Text-Based Editing</t>
+  </si>
+  <si>
+    <t>Understanding URDF: A Dataset and Analysis</t>
+  </si>
+  <si>
+    <t>You Only Look at One: Category-Level Object Representations for Pose Estimation From a Single Example</t>
+  </si>
+  <si>
+    <t>Self-Supervised Learning of Action Affordances as Interaction Modes</t>
+  </si>
+  <si>
+    <t>Diffusion Reward: Learning Rewards via Conditional Video Diffusion</t>
+  </si>
+  <si>
+    <t>Decoupling Meta-Reinforcement Learning with Gaussian Task Contexts and Skills</t>
+  </si>
+  <si>
+    <t>GSLB: The Graph Structure Learning Benchmark</t>
+  </si>
+  <si>
+    <t>A Review of Communicating Robot Learning during Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>Filtration Surfaces for Dynamic Graph Classification</t>
+  </si>
+  <si>
+    <t>Learning to Extrapolate: A Transductive Approach</t>
+  </si>
+  <si>
+    <t>Multi-Modal Interaction Control of Ultrasound Scanning Robots with Safe Human Guidance and Contact Recovery</t>
+  </si>
+  <si>
+    <t>Losing Focus: Can It Be Useful in Robotic Laser Surgery?</t>
+  </si>
+  <si>
+    <t>Can't Touch This: Real-Time, Safe Motion Planning and Control for Manipulators Under Uncertainty</t>
+  </si>
+  <si>
+    <t>Can large language models empower molecular property prediction?</t>
+  </si>
+  <si>
+    <t>Variational Annealing on Graphs for Combinatorial Optimization</t>
+  </si>
+  <si>
+    <t>One-shot Visual Imitation via Attributed Waypoints and Demonstration Augmentation</t>
+  </si>
+  <si>
+    <t>Chain-of-Thought Predictive Control</t>
+  </si>
+  <si>
+    <t>A Survey on Physics Informed Reinforcement Learning: Review and Open Problems</t>
+  </si>
+  <si>
+    <t>Energy transformer</t>
+  </si>
+  <si>
+    <t>Know2BIO: A Comprehensive Dual-View Benchmark for Evolving Biomedical Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>Rayleigh Quotient Graph Neural Networks for Graph-level Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Differentiable Euler Characteristic Transforms for Shape Classification</t>
+  </si>
+  <si>
+    <t>Signatures Meet Dynamic Programming: Generalizing Bellman Equations for Trajectory Following</t>
+  </si>
+  <si>
+    <t>Certifiably Robust Graph Contrastive Learning</t>
+  </si>
+  <si>
+    <t>Technical report: Graph Neural Networks go Grammatical</t>
+  </si>
+  <si>
+    <t>Exposition on over-squashing problem on GNNs: Current Methods, Benchmarks and Challenges</t>
+  </si>
+  <si>
+    <t>Boosting Reinforcement Learning and Planning with Demonstrations: A Survey</t>
+  </si>
+  <si>
+    <t>IGB: Addressing The Gaps In Labeling, Features, Heterogeneity, and Size of Public Graph Datasets for Deep Learning Research</t>
+  </si>
+  <si>
+    <t>Heterogenous Memory Augmented Neural Networks</t>
+  </si>
+  <si>
+    <t>A parallelized cellular Potts model that enables simulations at tissue scale</t>
+  </si>
+  <si>
+    <t>Subwords as Skills: Tokenization for Sparse-Reward Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Flavour-changing top quark decays in the alternative left-right model</t>
+  </si>
+  <si>
+    <t>Graph-level Representation Learning with Joint-Embedding Predictive Architectures</t>
+  </si>
+  <si>
+    <t>A nearly Dirichlet Higgs for lower-scale warped extra dimensions</t>
+  </si>
+  <si>
+    <t>Signgt: Signed attention-based graph transformer for graph representation learning</t>
+  </si>
+  <si>
+    <t>GRIL: A -parameter Persistence Based Vectorization for Machine Learning</t>
+  </si>
+  <si>
+    <t>What Makes Pre-Trained Visual Representations Successful for Robust Manipulation?</t>
+  </si>
+  <si>
+    <t>Maximum Independent Set: Self-Training through Dynamic Programming</t>
+  </si>
+  <si>
+    <t>MIMEx: Intrinsic Rewards from Masked Input Modeling</t>
+  </si>
+  <si>
+    <t>Generated Graph Detection</t>
+  </si>
+  <si>
+    <t>SGOOD: Substructure-enhanced Graph-Level Out-of-Distribution Detection</t>
+  </si>
+  <si>
+    <t>Augment to Interpret: Unsupervised and Inherently Interpretable Graph Embeddings</t>
+  </si>
+  <si>
+    <t>Towards Autonomous Selective Harvesting: A Review of Robot Perception, Robot Design, Motion Planning and Control</t>
+  </si>
+  <si>
+    <t>Graph Interpolation via Fast Fused-Gromovization</t>
+  </si>
+  <si>
+    <t>Effective Structural Encodings via Local Curvature Profiles</t>
+  </si>
+  <si>
+    <t>Requirements for Mass Adoption of Assistive Listening Technology by the General Public</t>
+  </si>
+  <si>
+    <t>EPIC: Graph Augmentation with Edit Path Interpolation via Learnable Cost</t>
+  </si>
+  <si>
+    <t>Projected Off-Policy Q-Learning (POP-QL) for Stabilizing Offline Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Probabilistically Rewired Message-Passing Neural Networks</t>
+  </si>
+  <si>
+    <t>Efficient Subgraph GNNs by Learning Effective Selection Policies</t>
+  </si>
+  <si>
+    <t>Geometric Pooling: maintaining more useful information</t>
+  </si>
+  <si>
+    <t>Granger-Causal Hierarchical Skill Discovery</t>
+  </si>
+  <si>
+    <t>On the Temperature of Bayesian Graph Neural Networks for Conformal Prediction</t>
+  </si>
+  <si>
+    <t>Diversified Node Sampling based Hierarchical Transformer Pooling for Graph Representation Learning</t>
+  </si>
+  <si>
+    <t>Simplicial Representation Learning with Neural -forms</t>
+  </si>
+  <si>
+    <t>On the new possibility of pulse accumulation of UCN</t>
+  </si>
+  <si>
+    <t>Anchor Space Optimal Transport: Accelerating Batch Processing of Multiple OT Problems</t>
+  </si>
+  <si>
+    <t>A stochastic programming approach for dynamic allocation of bed capacity and assignment of patients to collaborating hospitals during pandemic outbreaks</t>
+  </si>
+  <si>
+    <t>A Multimodal Dataset of 21,412 Recorded Nights for Sleep and Respiratory Research</t>
+  </si>
+  <si>
+    <t>Improving Self-supervised Molecular Representation Learning using Persistent Homology</t>
+  </si>
+  <si>
+    <t>Attacking Graph Neural Networks with Bit Flips: Weisfeiler and Lehman Go Indifferent</t>
+  </si>
+  <si>
+    <t>On the Adversarial Robustness of Graph Contrastive Learning Methods</t>
+  </si>
+  <si>
+    <t>xNeuSM: Explainable Neural Subgraph Matching with Graph Learnable Multi-hop Attention Networks</t>
+  </si>
+  <si>
+    <t>CIN++: Enhancing Topological Message Passing</t>
+  </si>
+  <si>
+    <t>Size Generalizability of Graph Neural Networks on Biological Data: Insights and Practices from the Spectral Perspective</t>
+  </si>
+  <si>
+    <t>Learning Uniform Clusters on Hypersphere for Deep Graph-level Clustering</t>
+  </si>
+  <si>
+    <t>Is Rewiring Actually Helpful in Graph Neural Networks?</t>
+  </si>
+  <si>
+    <t>SGL-PT: A Strong Graph Learner with Graph Prompt Tuning</t>
+  </si>
+  <si>
+    <t>Transitivity-preserving graph representation learning for bridging local connectivity and role-based similarity</t>
+  </si>
+  <si>
+    <t>XGBD: Explanation-Guided Graph Backdoor Detection</t>
+  </si>
+  <si>
+    <t>Weisfeiler and Lehman Go Measurement Modeling: Probing the Validity of the WL Test</t>
+  </si>
+  <si>
+    <t>Careful Selection and Thoughtful Discarding: Graph Explicit Pooling Utilizing Discarded Nodes</t>
+  </si>
+  <si>
+    <t>On Structural Expressive Power of Graph Transformers</t>
+  </si>
+  <si>
+    <t>Critical density for network reconstruction</t>
+  </si>
+  <si>
+    <t>ICRA 2023 …</t>
+  </si>
+  <si>
+    <t>… and Automation (ICRA)</t>
+  </si>
+  <si>
     <t>… Automation (ICRA)</t>
   </si>
   <si>
-    <t>… and Automation (ICRA)</t>
+    <t>… on Robotics and Automation (ICRA)</t>
   </si>
   <si>
     <t>… and Automation (ICRA …</t>
   </si>
   <si>
-    <t>… on Robotics and Automation (ICRA)</t>
-  </si>
-  <si>
     <t>… and automation (ICRA …</t>
   </si>
   <si>
     <t>… on Robotics and Automation (ICRA …</t>
   </si>
   <si>
+    <t>ICRA'23-IEEE Int. Conf. on …</t>
+  </si>
+  <si>
+    <t>… Robots and Systems (IROS)</t>
+  </si>
+  <si>
     <t>… and Systems (IROS)</t>
   </si>
   <si>
-    <t>… Robots and Systems (IROS)</t>
-  </si>
-  <si>
     <t>… on Intelligent Robots and Systems (IROS)</t>
   </si>
   <si>
     <t>… Intelligent Robots and Systems (IROS)</t>
   </si>
   <si>
-    <t>… Robots and Systems (IROS …</t>
+    <t>… Intelligent Robots and Systems (IROS …</t>
+  </si>
+  <si>
+    <t>… Robotics and Automation …</t>
   </si>
   <si>
     <t>IEEE Robotics and Automation …</t>
   </si>
   <si>
-    <t>… Robotics and Automation …</t>
-  </si>
-  <si>
     <t>… Robotics and Automation Letters</t>
   </si>
   <si>
@@ -644,34 +2075,46 @@
     <t>IEEE Robotics and Automation Letters</t>
   </si>
   <si>
+    <t>Journal: IEEE Robotics and Automation Letters</t>
+  </si>
+  <si>
     <t>IEEE Transactions on Robotics</t>
   </si>
   <si>
     <t>… Transactions on …</t>
   </si>
   <si>
+    <t>… Transactions on Robotics</t>
+  </si>
+  <si>
     <t>IEEE Transactions on …</t>
   </si>
   <si>
-    <t>… Transactions on Robotics</t>
+    <t>… Annual Conference on Robot …</t>
+  </si>
+  <si>
+    <t>Conference on Robot …</t>
+  </si>
+  <si>
+    <t>Conference on Robot Learning</t>
   </si>
   <si>
     <t>… on Robot Learning</t>
   </si>
   <si>
-    <t>Conference on Robot …</t>
-  </si>
-  <si>
-    <t>Conference on Robot Learning</t>
-  </si>
-  <si>
-    <t>… and Engineering (CASE)</t>
-  </si>
-  <si>
-    <t>… Science and Engineering (CASE)</t>
-  </si>
-  <si>
-    <t>… Engineering (CASE)</t>
+    <t>… on Automation Science and …</t>
+  </si>
+  <si>
+    <t>… Automation Science …</t>
+  </si>
+  <si>
+    <t>… IEEE 19th International Conference on …</t>
+  </si>
+  <si>
+    <t>… IEEE 19th International …</t>
+  </si>
+  <si>
+    <t>… 19th International Conference …</t>
   </si>
   <si>
     <t>… Robots (Humanoids …</t>
@@ -683,34 +2126,661 @@
     <t>IEEE Sensors Journal</t>
   </si>
   <si>
+    <t>arXiv preprint arXiv …</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.02496</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.09765</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.04130</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.03719</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.02051</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.16898</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.15272</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.00533</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.13037</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.05375</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.10175</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.19093</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.11835</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.08802</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.03833</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.09802</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.20414</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.09893</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.12357</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.10901</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.07522</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.09102</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.09157</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.07972</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.01310</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.13814</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.01488</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.14545</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.17170</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.12113</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.11018</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.05959</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.17842</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.16524</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.10474</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.06604</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.00987</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.08728</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.12398</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.01738</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.04016</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.17047</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.10588</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.18308</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.00926</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.00186</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.08184</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.04591</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.13705</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.17783</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.03548</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.06679</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.11193</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.04323</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.14204</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.08788</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.15346</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.06903</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.04670</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.07454</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.11259</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.01530</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.01484</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.03903</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.14188</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.08573</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.03365</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.10985</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.19090</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.03835</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.09439</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.13219</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.17552</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.14386</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.17611</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.00911</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.03624</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.12238</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.14447</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.01419</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.15110</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.03560</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.04738</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.14012</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.12295</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.11848</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.09899</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.14237</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.05084</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.06591</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.06922</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.04023</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.03947</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.07473</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.05945</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.18459</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.08742</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.16347</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.13786</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.14320</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.14670</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.05197</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.01224</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.10611</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.13723</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.09195</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.08887</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.16917</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.05041</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.03360</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.13442</t>
+  </si>
+  <si>
+    <t>arXiv e …</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.12821</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.10121</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.10411</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.09655</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.04123</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.10277</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.11448</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.04710</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.03175</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.16427</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.14816</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.11308</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.14466</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.06440</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.17664</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.18569</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.01182</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.14344</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.11191</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.16778</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.01392</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.02475</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.04936</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.10171</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.09350</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.11235</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.02328</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.02418</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.13122</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.06394</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.11057</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.08042</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.01329</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.08538</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.08560</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.02749</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.08597</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.04903</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.00125</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.08052</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.03669</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.08539</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.16219</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.05959</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.15970</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.14119</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.13774</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.09384</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.12409</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.15596</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.02695</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.13630</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.07773</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.15283</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.12996</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.09502</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.13222</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.00514</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.12626</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.14134</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.06518</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.03616</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2304.09702</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2307.07443</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.04856</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.02861</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.07630</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.03312</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.07073</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2303.13489</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.10909</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.09317</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.04459</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.12523</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.16014</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.09567</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.11025</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.08932</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.10237</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2309.16564</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.14864</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2306.01310</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.11479</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.20250</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.08515</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2301.00877</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2310.16123</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2311.17327</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2312.01612</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.15611</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.19717</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2302.12449</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.09517</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2308.04406</t>
+  </si>
+  <si>
+    <t>arXiv preprint arXiv:2305.17285</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
     <t>Result Count</t>
   </si>
   <si>
-    <t>source:ICRA site:ieee.org</t>
-  </si>
-  <si>
-    <t>source:IROS site:ieee.org</t>
-  </si>
-  <si>
-    <t>source:"Robotics and automation letters" site:ieee.org</t>
+    <t>-workshop source:ICRA</t>
+  </si>
+  <si>
+    <t>-workshop source:IROS</t>
+  </si>
+  <si>
+    <t>source:"Robotics and automation letters"</t>
   </si>
   <si>
     <t>source:"Transactions on Robotics" site:ieee.org</t>
   </si>
   <si>
-    <t>source:"Conference on Robot Learning" site:mlr.press</t>
-  </si>
-  <si>
-    <t>source:"case" site:ieee.org</t>
-  </si>
-  <si>
-    <t>source:"Humanoids" site:ieee.org</t>
-  </si>
-  <si>
-    <t>source:"IEEE Sensors" site:ieee.org</t>
+    <t>-workshop source:"Conference on Robot Learning"</t>
+  </si>
+  <si>
+    <t>-workshop source:2023 IEEE "19th International Conference on Automation Science and Engineering (CASE)"</t>
+  </si>
+  <si>
+    <t>-workshop source:"Humanoids"</t>
+  </si>
+  <si>
+    <t>source:"IEEE Sensors journal"</t>
+  </si>
+  <si>
+    <t>source:arxiv</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +3138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1095,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1103,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1111,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1119,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1127,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1135,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1143,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1151,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1159,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1167,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1175,7 +3245,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1183,7 +3253,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1191,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1199,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1207,7 +3277,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1215,7 +3285,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1223,7 +3293,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1231,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1239,7 +3309,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1247,7 +3317,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1255,7 +3325,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1263,7 +3333,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1271,7 +3341,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1279,7 +3349,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1287,7 +3357,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1295,7 +3365,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1303,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1311,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1319,7 +3389,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1327,7 +3397,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1335,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1343,7 +3413,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1351,7 +3421,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1359,7 +3429,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1367,7 +3437,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1375,7 +3445,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1383,7 +3453,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1391,7 +3461,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1399,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1407,7 +3477,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1415,7 +3485,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1423,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1431,7 +3501,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1439,7 +3509,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1447,7 +3517,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1455,7 +3525,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1463,7 +3533,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1471,7 +3541,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1479,7 +3549,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1487,7 +3557,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1495,7 +3565,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1503,7 +3573,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1511,7 +3581,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1519,7 +3589,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1527,7 +3597,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1535,7 +3605,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1543,7 +3613,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1551,7 +3621,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1559,7 +3629,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1567,7 +3637,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>676</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1575,7 +3645,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1583,7 +3653,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1591,7 +3661,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1599,7 +3669,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1607,7 +3677,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1615,7 +3685,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1623,7 +3693,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1631,7 +3701,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1639,7 +3709,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1647,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1655,7 +3725,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1663,7 +3733,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1671,7 +3741,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1679,7 +3749,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1687,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1695,7 +3765,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1703,7 +3773,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1711,7 +3781,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1719,7 +3789,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1727,7 +3797,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1735,7 +3805,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>676</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1743,7 +3813,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1751,7 +3821,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1759,7 +3829,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1767,7 +3837,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1775,7 +3845,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1783,7 +3853,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1791,7 +3861,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1799,7 +3869,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>681</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1807,7 +3877,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1815,7 +3885,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1823,7 +3893,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1831,7 +3901,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>683</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1839,7 +3909,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1847,7 +3917,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1855,7 +3925,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1863,7 +3933,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1871,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1879,7 +3949,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1887,7 +3957,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>685</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1895,7 +3965,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>680</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1903,7 +3973,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1911,7 +3981,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>683</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1919,7 +3989,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>685</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1927,7 +3997,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>682</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1935,7 +4005,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>680</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1943,7 +4013,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1951,7 +4021,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1959,7 +4029,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1967,7 +4037,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1975,7 +4045,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1983,7 +4053,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1991,7 +4061,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1999,7 +4069,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2007,7 +4077,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2015,7 +4085,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2023,7 +4093,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>682</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2031,7 +4101,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2039,7 +4109,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2047,7 +4117,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2055,7 +4125,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2063,7 +4133,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2071,7 +4141,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>685</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2079,7 +4149,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2087,7 +4157,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2095,7 +4165,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2103,7 +4173,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>210</v>
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2111,7 +4181,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>683</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2119,7 +4189,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2127,7 +4197,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>685</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2135,7 +4205,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>685</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2143,7 +4213,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>685</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2151,7 +4221,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2159,7 +4229,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>682</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2167,7 +4237,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>210</v>
+        <v>686</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2175,7 +4245,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>210</v>
+        <v>687</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2183,7 +4253,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2191,7 +4261,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>689</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2199,7 +4269,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>688</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2207,7 +4277,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2215,7 +4285,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>689</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2223,7 +4293,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2231,7 +4301,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2239,7 +4309,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2247,7 +4317,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2255,7 +4325,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>690</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2263,7 +4333,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2271,7 +4341,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>690</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2279,7 +4349,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>213</v>
+        <v>688</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2287,7 +4357,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2295,7 +4365,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>688</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2303,7 +4373,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2311,7 +4381,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2319,7 +4389,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>692</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2327,7 +4397,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>213</v>
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2335,7 +4405,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>692</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2343,7 +4413,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2351,7 +4421,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2359,7 +4429,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>213</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2367,7 +4437,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>213</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2375,7 +4445,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2383,7 +4453,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>692</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2391,7 +4461,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2399,7 +4469,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2407,7 +4477,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>692</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2415,7 +4485,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2423,7 +4493,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>214</v>
+        <v>693</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2431,7 +4501,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2439,7 +4509,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2447,7 +4517,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2455,7 +4525,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2463,7 +4533,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2471,7 +4541,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2479,7 +4549,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2487,7 +4557,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2495,7 +4565,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>218</v>
+        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2503,7 +4573,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2511,7 +4581,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>218</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2519,7 +4589,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>218</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2527,7 +4597,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2535,7 +4605,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>692</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2543,7 +4613,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2551,7 +4621,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2559,7 +4629,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2567,7 +4637,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2575,7 +4645,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2583,7 +4653,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>221</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2591,7 +4661,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>221</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2599,7 +4669,3823 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>110</v>
+      </c>
+      <c r="B355" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>256</v>
+      </c>
+      <c r="B479" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>614</v>
+      </c>
+      <c r="B616" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>615</v>
+      </c>
+      <c r="B617" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>617</v>
+      </c>
+      <c r="B619" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>618</v>
+      </c>
+      <c r="B620" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>619</v>
+      </c>
+      <c r="B621" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>622</v>
+      </c>
+      <c r="B624" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>624</v>
+      </c>
+      <c r="B626" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>625</v>
+      </c>
+      <c r="B627" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>626</v>
+      </c>
+      <c r="B628" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>627</v>
+      </c>
+      <c r="B629" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>628</v>
+      </c>
+      <c r="B630" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>629</v>
+      </c>
+      <c r="B631" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>630</v>
+      </c>
+      <c r="B632" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>631</v>
+      </c>
+      <c r="B633" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>632</v>
+      </c>
+      <c r="B634" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>633</v>
+      </c>
+      <c r="B635" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>634</v>
+      </c>
+      <c r="B636" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>635</v>
+      </c>
+      <c r="B637" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>636</v>
+      </c>
+      <c r="B638" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>637</v>
+      </c>
+      <c r="B639" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>638</v>
+      </c>
+      <c r="B640" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>639</v>
+      </c>
+      <c r="B641" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>640</v>
+      </c>
+      <c r="B642" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>641</v>
+      </c>
+      <c r="B643" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>642</v>
+      </c>
+      <c r="B644" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>643</v>
+      </c>
+      <c r="B645" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>644</v>
+      </c>
+      <c r="B646" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>645</v>
+      </c>
+      <c r="B647" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>646</v>
+      </c>
+      <c r="B648" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>647</v>
+      </c>
+      <c r="B649" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>648</v>
+      </c>
+      <c r="B650" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>649</v>
+      </c>
+      <c r="B651" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>650</v>
+      </c>
+      <c r="B652" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>651</v>
+      </c>
+      <c r="B653" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>652</v>
+      </c>
+      <c r="B654" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>653</v>
+      </c>
+      <c r="B655" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>654</v>
+      </c>
+      <c r="B656" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>655</v>
+      </c>
+      <c r="B657" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>656</v>
+      </c>
+      <c r="B658" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>657</v>
+      </c>
+      <c r="B659" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>658</v>
+      </c>
+      <c r="B660" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>659</v>
+      </c>
+      <c r="B661" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>660</v>
+      </c>
+      <c r="B662" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>661</v>
+      </c>
+      <c r="B663" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>662</v>
+      </c>
+      <c r="B664" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>663</v>
+      </c>
+      <c r="B665" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>664</v>
+      </c>
+      <c r="B666" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>665</v>
+      </c>
+      <c r="B667" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>666</v>
+      </c>
+      <c r="B668" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +8495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2617,39 +8503,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>911</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>913</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>914</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>915</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>916</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -2657,34 +8543,42 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>917</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>918</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>919</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>920</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>921</v>
+      </c>
+      <c r="B10">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
